--- a/DDR3 board timings.xlsx
+++ b/DDR3 board timings.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CERN\APD\IPMC\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CERN\APD\IPMC\Schematic\svn\trunk\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1162,17 +1162,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="99">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="17">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1340,816 +1330,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3702,8 +2882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="I51" sqref="I51"/>
+    <sheetView tabSelected="1" topLeftCell="B29" workbookViewId="0">
+      <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3766,7 +2946,7 @@
         <v>171</v>
       </c>
       <c r="Q1" s="10">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="R1" s="6" t="s">
         <v>173</v>
@@ -3787,7 +2967,7 @@
         <v>22.271000000000001</v>
       </c>
       <c r="D2">
-        <v>647.23199999999997</v>
+        <v>772.19399999999996</v>
       </c>
       <c r="F2">
         <v>24.315000000000001</v>
@@ -3797,7 +2977,7 @@
       </c>
       <c r="J2" s="5">
         <f>B2+(C2+H2)/1000*io_1!$J$1+(D2+F2*2+G2*2)/1000*io_1!$J$2</f>
-        <v>183.91017457999999</v>
+        <v>204.52178174599999</v>
       </c>
       <c r="K2" s="5"/>
       <c r="L2" s="9" t="s">
@@ -3811,7 +2991,7 @@
         <v>172</v>
       </c>
       <c r="Q2">
-        <v>103</v>
+        <v>10</v>
       </c>
       <c r="R2" s="6" t="s">
         <v>173</v>
@@ -3832,7 +3012,7 @@
         <v>22.271000000000001</v>
       </c>
       <c r="D3">
-        <v>665.05399999999997</v>
+        <v>788.33699999999999</v>
       </c>
       <c r="F3">
         <v>24.315000000000001</v>
@@ -3842,7 +3022,7 @@
       </c>
       <c r="J3" s="5">
         <f>B3+(C3+H3)/1000*io_1!$J$1+(D3+F3*2+G3*2)/1000*io_1!$J$2</f>
-        <v>183.95928872600001</v>
+        <v>204.29395659500003</v>
       </c>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
@@ -3856,14 +3036,14 @@
       </c>
       <c r="C4" s="11">
         <f>MAX(J2:J3)-MIN(J2:J3)</f>
-        <v>4.9114146000022174E-2</v>
+        <v>0.22782515099996203</v>
       </c>
       <c r="I4" s="6" t="s">
         <v>179</v>
       </c>
       <c r="J4" s="9">
         <f>AVERAGE(J2:J3)</f>
-        <v>183.934731653</v>
+        <v>204.40786917050002</v>
       </c>
       <c r="K4" s="9"/>
       <c r="L4" s="9"/>
@@ -3871,7 +3051,7 @@
         <v>184</v>
       </c>
       <c r="Q4">
-        <v>0.5</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.3">
@@ -3965,11 +3145,11 @@
       </c>
       <c r="K8" s="5">
         <f>$J$4-J8</f>
-        <v>-24.609115628999973</v>
+        <v>-4.1359781114999521</v>
       </c>
       <c r="L8" s="5">
         <f>K8/io_1!$J$2*1000</f>
-        <v>-149.19769634964788</v>
+        <v>-25.075196349647765</v>
       </c>
       <c r="M8" t="str">
         <f>IF(J8=$R$8, "Route","")</f>
@@ -3980,7 +3160,7 @@
       </c>
       <c r="O8" s="5">
         <f>MIN(J8:J30)</f>
-        <v>135.98643510799999</v>
+        <v>197.10024950500002</v>
       </c>
       <c r="Q8">
         <f>IF(D8=0,J8,0)</f>
@@ -3996,7 +3176,7 @@
       </c>
       <c r="T8">
         <f>MIN(S8:S30)</f>
-        <v>135.98643510799999</v>
+        <v>197.10024950500002</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.3">
@@ -4011,7 +3191,7 @@
         <v>22.271000000000001</v>
       </c>
       <c r="D9">
-        <v>547.17700000000002</v>
+        <v>828.26700000000005</v>
       </c>
       <c r="F9">
         <v>12.635</v>
@@ -4021,15 +3201,15 @@
       </c>
       <c r="J9" s="5">
         <f>B9+(C9+H9+E9)/1000*io_1!$J$1+(D9+F9*2+G9*2)/1000*io_1!$J$2</f>
-        <v>152.284734235</v>
+        <v>198.64856210500002</v>
       </c>
       <c r="K9" s="5">
         <f t="shared" ref="K9:K30" si="0">$J$4-J9</f>
-        <v>31.649997417999998</v>
+        <v>5.7593070654999963</v>
       </c>
       <c r="L9" s="5">
         <f>K9/io_1!$J$2*1000</f>
-        <v>191.88445352636967</v>
+        <v>34.916953526369689</v>
       </c>
       <c r="M9" t="str">
         <f t="shared" ref="M9:M30" si="1">IF(J9=$R$8, "Route","")</f>
@@ -4048,7 +3228,7 @@
       </c>
       <c r="S9">
         <f t="shared" ref="S9:S30" si="3">IF(D9=0,"",J9)</f>
-        <v>152.284734235</v>
+        <v>198.64856210500002</v>
       </c>
       <c r="T9">
         <f>MAX(S8:S30)</f>
@@ -4067,7 +3247,7 @@
         <v>22.271000000000001</v>
       </c>
       <c r="D10">
-        <v>560.22199999999998</v>
+        <v>895.70699999999999</v>
       </c>
       <c r="F10">
         <v>12.635</v>
@@ -4077,15 +3257,15 @@
       </c>
       <c r="J10" s="5">
         <f>B10+(C10+H10+E10)/1000*io_1!$J$1+(D10+F10*2+G10*2)/1000*io_1!$J$2</f>
-        <v>155.34291567</v>
+        <v>210.678818025</v>
       </c>
       <c r="K10" s="5">
         <f t="shared" si="0"/>
-        <v>28.591815983000004</v>
+        <v>-6.2709488544999772</v>
       </c>
       <c r="L10" s="5">
         <f>K10/io_1!$J$2*1000</f>
-        <v>173.34361557022729</v>
+        <v>-38.018884429772569</v>
       </c>
       <c r="M10" t="str">
         <f t="shared" si="1"/>
@@ -4097,7 +3277,7 @@
       </c>
       <c r="S10">
         <f t="shared" si="3"/>
-        <v>155.34291567</v>
+        <v>210.678818025</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.3">
@@ -4112,7 +3292,7 @@
         <v>22.271000000000001</v>
       </c>
       <c r="D11">
-        <v>539.53399999999999</v>
+        <v>888.46100000000001</v>
       </c>
       <c r="F11">
         <v>9.0549999999999997</v>
@@ -4122,15 +3302,15 @@
       </c>
       <c r="J11" s="5">
         <f>B11+(C11+H11+E11)/1000*io_1!$J$1+(D11+F11*2+G11*2)/1000*io_1!$J$2</f>
-        <v>142.422583006</v>
+        <v>199.97564916700003</v>
       </c>
       <c r="K11" s="5">
         <f t="shared" si="0"/>
-        <v>41.512148647000004</v>
+        <v>4.4322200034999923</v>
       </c>
       <c r="L11" s="5">
         <f>K11/io_1!$J$2*1000</f>
-        <v>251.67572220100277</v>
+        <v>26.871222201002723</v>
       </c>
       <c r="M11" t="str">
         <f t="shared" si="1"/>
@@ -4142,7 +3322,7 @@
       </c>
       <c r="S11">
         <f t="shared" si="3"/>
-        <v>142.422583006</v>
+        <v>199.97564916700003</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.3">
@@ -4160,7 +3340,7 @@
         <v>541.84</v>
       </c>
       <c r="E12">
-        <v>188.976</v>
+        <v>301.12299999999999</v>
       </c>
       <c r="F12">
         <v>9.0549999999999997</v>
@@ -4173,15 +3353,15 @@
       </c>
       <c r="J12" s="5">
         <f>B12+(C12+H12+E12)/1000*io_1!$J$1+(D12+F12*2+G12*2)/1000*io_1!$J$2</f>
-        <v>183.64896388599999</v>
+        <v>200.27666313500001</v>
       </c>
       <c r="K12" s="5">
         <f t="shared" si="0"/>
-        <v>0.28576776700001005</v>
+        <v>4.1312060355000142</v>
       </c>
       <c r="L12" s="5">
         <f>K12/io_1!$J$2*1000</f>
-        <v>1.7325243690245118</v>
+        <v>25.046264682344894</v>
       </c>
       <c r="M12" t="str">
         <f t="shared" si="1"/>
@@ -4193,7 +3373,7 @@
       </c>
       <c r="S12">
         <f t="shared" si="3"/>
-        <v>183.64896388599999</v>
+        <v>200.27666313500001</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.3">
@@ -4208,7 +3388,7 @@
         <v>22.271000000000001</v>
       </c>
       <c r="D13">
-        <v>570.17100000000005</v>
+        <v>868.75599999999997</v>
       </c>
       <c r="F13">
         <v>12.635</v>
@@ -4218,15 +3398,15 @@
       </c>
       <c r="J13" s="5">
         <f>B13+(C13+H13+E13)/1000*io_1!$J$1+(D13+F13*2+G13*2)/1000*io_1!$J$2</f>
-        <v>155.35543357700001</v>
+        <v>204.60493923200002</v>
       </c>
       <c r="K13" s="5">
         <f t="shared" si="0"/>
-        <v>28.579298075999986</v>
+        <v>-0.19707006149999984</v>
       </c>
       <c r="L13" s="5">
         <f>K13/io_1!$J$2*1000</f>
-        <v>173.26772324984984</v>
+        <v>-1.1947767501500508</v>
       </c>
       <c r="M13" t="str">
         <f t="shared" si="1"/>
@@ -4238,7 +3418,7 @@
       </c>
       <c r="S13">
         <f t="shared" si="3"/>
-        <v>155.35543357700001</v>
+        <v>204.60493923200002</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.3">
@@ -4267,11 +3447,11 @@
       </c>
       <c r="K14" s="5">
         <f t="shared" si="0"/>
-        <v>-15.111895150000009</v>
+        <v>5.3612423675000116</v>
       </c>
       <c r="L14" s="5">
         <f>K14/io_1!$J$2*1000</f>
-        <v>-91.618893496541276</v>
+        <v>32.50360650345884</v>
       </c>
       <c r="M14" t="str">
         <f t="shared" si="1"/>
@@ -4298,7 +3478,7 @@
         <v>22.271000000000001</v>
       </c>
       <c r="D15">
-        <v>452.68799999999999</v>
+        <v>860.48599999999999</v>
       </c>
       <c r="F15">
         <v>12.635</v>
@@ -4308,15 +3488,15 @@
       </c>
       <c r="J15" s="5">
         <f>B15+(C15+H15+E15)/1000*io_1!$J$1+(D15+F15*2+G15*2)/1000*io_1!$J$2</f>
-        <v>135.98643510799999</v>
+        <v>203.249860622</v>
       </c>
       <c r="K15" s="5">
         <f t="shared" si="0"/>
-        <v>47.948296545000005</v>
+        <v>1.1580085485000211</v>
       </c>
       <c r="L15" s="5">
         <f>K15/io_1!$J$2*1000</f>
-        <v>290.69615894581761</v>
+        <v>7.0206589458177735</v>
       </c>
       <c r="M15" t="str">
         <f t="shared" si="1"/>
@@ -4328,7 +3508,7 @@
       </c>
       <c r="S15">
         <f t="shared" si="3"/>
-        <v>135.98643510799999</v>
+        <v>203.249860622</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
@@ -4343,7 +3523,7 @@
         <v>22.271000000000001</v>
       </c>
       <c r="D16">
-        <v>491.89400000000001</v>
+        <v>809.16099999999994</v>
       </c>
       <c r="F16">
         <v>27.895</v>
@@ -4353,15 +3533,15 @@
       </c>
       <c r="J16" s="5">
         <f>B16+(C16+H16+E16)/1000*io_1!$J$1+(D16+F16*2+G16*2)/1000*io_1!$J$2</f>
-        <v>145.371250726</v>
+        <v>197.70222150699999</v>
       </c>
       <c r="K16" s="5">
         <f t="shared" si="0"/>
-        <v>38.563480927000001</v>
+        <v>6.7056476635000308</v>
       </c>
       <c r="L16" s="5">
         <f>K16/io_1!$J$2*1000</f>
-        <v>233.79883309385664</v>
+        <v>40.654333093856849</v>
       </c>
       <c r="M16" t="str">
         <f t="shared" si="1"/>
@@ -4373,7 +3553,7 @@
       </c>
       <c r="S16">
         <f t="shared" si="3"/>
-        <v>145.371250726</v>
+        <v>197.70222150699999</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.3">
@@ -4388,10 +3568,10 @@
         <v>22.271000000000001</v>
       </c>
       <c r="D17">
-        <v>397.40600000000001</v>
+        <v>365.91</v>
       </c>
       <c r="E17">
-        <v>94.388000000000005</v>
+        <v>447.46800000000002</v>
       </c>
       <c r="F17">
         <v>9.0549999999999997</v>
@@ -4404,15 +3584,15 @@
       </c>
       <c r="J17" s="5">
         <f>B17+(C17+H17+E17)/1000*io_1!$J$1+(D17+F17*2+G17*2)/1000*io_1!$J$2</f>
-        <v>151.28830762799998</v>
+        <v>198.44337526000001</v>
       </c>
       <c r="K17" s="5">
         <f t="shared" si="0"/>
-        <v>32.646424025000016</v>
+        <v>5.9644939105000105</v>
       </c>
       <c r="L17" s="5">
         <f>K17/io_1!$J$2*1000</f>
-        <v>197.92548956306126</v>
+        <v>36.160939903481868</v>
       </c>
       <c r="M17" t="str">
         <f t="shared" si="1"/>
@@ -4424,7 +3604,7 @@
       </c>
       <c r="S17">
         <f t="shared" si="3"/>
-        <v>151.28830762799998</v>
+        <v>198.44337526000001</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.3">
@@ -4439,7 +3619,7 @@
         <v>22.271000000000001</v>
       </c>
       <c r="D18">
-        <v>807.64599999999996</v>
+        <v>883.68399999999997</v>
       </c>
       <c r="F18">
         <v>27.895</v>
@@ -4449,15 +3629,15 @@
       </c>
       <c r="J18" s="5">
         <f>B18+(C18+H18+E18)/1000*io_1!$J$1+(D18+F18*2+G18*2)/1000*io_1!$J$2</f>
-        <v>192.13533286199998</v>
+        <v>204.677268696</v>
       </c>
       <c r="K18" s="5">
         <f t="shared" si="0"/>
-        <v>-8.2006012089999842</v>
+        <v>-0.2693995254999777</v>
       </c>
       <c r="L18" s="5">
         <f>K18/io_1!$J$2*1000</f>
-        <v>-49.717788623948778</v>
+        <v>-1.6332886239487439</v>
       </c>
       <c r="M18" t="str">
         <f t="shared" si="1"/>
@@ -4469,7 +3649,7 @@
       </c>
       <c r="S18">
         <f t="shared" si="3"/>
-        <v>192.13533286199998</v>
+        <v>204.677268696</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.3">
@@ -4484,7 +3664,7 @@
         <v>22.271000000000001</v>
       </c>
       <c r="D19">
-        <v>660.27800000000002</v>
+        <v>879.16800000000001</v>
       </c>
       <c r="F19">
         <v>12.635</v>
@@ -4494,15 +3674,15 @@
       </c>
       <c r="J19" s="5">
         <f>B19+(C19+H19+E19)/1000*io_1!$J$1+(D19+F19*2+G19*2)/1000*io_1!$J$2</f>
-        <v>161.95295247800001</v>
+        <v>198.05732574799998</v>
       </c>
       <c r="K19" s="5">
         <f t="shared" si="0"/>
-        <v>21.981779174999986</v>
+        <v>6.3505434225000386</v>
       </c>
       <c r="L19" s="5">
         <f>K19/io_1!$J$2*1000</f>
-        <v>133.26894245284726</v>
+        <v>38.501442452847577</v>
       </c>
       <c r="M19" t="str">
         <f t="shared" si="1"/>
@@ -4514,7 +3694,7 @@
       </c>
       <c r="S19">
         <f t="shared" si="3"/>
-        <v>161.95295247800001</v>
+        <v>198.05732574799998</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.3">
@@ -4529,7 +3709,7 @@
         <v>22.271000000000001</v>
       </c>
       <c r="D20">
-        <v>732.72699999999998</v>
+        <v>870.803</v>
       </c>
       <c r="F20">
         <v>27.895</v>
@@ -4539,15 +3719,15 @@
       </c>
       <c r="J20" s="5">
         <f>B20+(C20+H20+E20)/1000*io_1!$J$1+(D20+F20*2+G20*2)/1000*io_1!$J$2</f>
-        <v>183.79496824499998</v>
+        <v>206.56963791300001</v>
       </c>
       <c r="K20" s="5">
         <f t="shared" si="0"/>
-        <v>0.13976340800002163</v>
+        <v>-2.1617687424999872</v>
       </c>
       <c r="L20" s="5">
         <f>K20/io_1!$J$2*1000</f>
-        <v>0.84734367630042873</v>
+        <v>-13.106156323699624</v>
       </c>
       <c r="M20" t="str">
         <f t="shared" si="1"/>
@@ -4559,7 +3739,7 @@
       </c>
       <c r="S20">
         <f t="shared" si="3"/>
-        <v>183.79496824499998</v>
+        <v>206.56963791300001</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.3">
@@ -4574,7 +3754,7 @@
         <v>22.271000000000001</v>
       </c>
       <c r="D21">
-        <v>544.07899999999995</v>
+        <v>869.71100000000001</v>
       </c>
       <c r="F21">
         <v>12.635</v>
@@ -4584,15 +3764,15 @@
       </c>
       <c r="J21" s="5">
         <f>B21+(C21+H21+E21)/1000*io_1!$J$1+(D21+F21*2+G21*2)/1000*io_1!$J$2</f>
-        <v>145.19874082099997</v>
+        <v>198.90945979700001</v>
       </c>
       <c r="K21" s="5">
         <f t="shared" si="0"/>
-        <v>38.735990832000027</v>
+        <v>5.4984093735000101</v>
       </c>
       <c r="L21" s="5">
         <f>K21/io_1!$J$2*1000</f>
-        <v>234.84470897219055</v>
+        <v>33.335208972190451</v>
       </c>
       <c r="M21" t="str">
         <f t="shared" si="1"/>
@@ -4604,7 +3784,7 @@
       </c>
       <c r="S21">
         <f t="shared" si="3"/>
-        <v>145.19874082099997</v>
+        <v>198.90945979700001</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.3">
@@ -4619,7 +3799,7 @@
         <v>22.271000000000001</v>
       </c>
       <c r="D22">
-        <v>617.87900000000002</v>
+        <v>809.48900000000003</v>
       </c>
       <c r="F22">
         <v>27.895</v>
@@ -4629,15 +3809,15 @@
       </c>
       <c r="J22" s="5">
         <f>B22+(C22+H22+E22)/1000*io_1!$J$1+(D22+F22*2+G22*2)/1000*io_1!$J$2</f>
-        <v>168.91209458099999</v>
+        <v>200.51682281100003</v>
       </c>
       <c r="K22" s="5">
         <f t="shared" si="0"/>
-        <v>15.022637072000009</v>
+        <v>3.8910463594999953</v>
       </c>
       <c r="L22" s="5">
         <f>K22/io_1!$J$2*1000</f>
-        <v>91.077748507060065</v>
+        <v>23.590248507059986</v>
       </c>
       <c r="M22" t="str">
         <f t="shared" si="1"/>
@@ -4649,7 +3829,7 @@
       </c>
       <c r="S22">
         <f t="shared" si="3"/>
-        <v>168.91209458099999</v>
+        <v>200.51682281100003</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.3">
@@ -4664,7 +3844,7 @@
         <v>22.271000000000001</v>
       </c>
       <c r="D23">
-        <v>415.85599999999999</v>
+        <v>774.00800000000004</v>
       </c>
       <c r="F23">
         <v>9.0549999999999997</v>
@@ -4674,15 +3854,15 @@
       </c>
       <c r="J23" s="5">
         <f>B23+(C23+H23+E23)/1000*io_1!$J$1+(D23+F23*2+G23*2)/1000*io_1!$J$2</f>
-        <v>138.93926265200002</v>
+        <v>198.01392798800003</v>
       </c>
       <c r="K23" s="5">
         <f t="shared" si="0"/>
-        <v>44.995469000999975</v>
+        <v>6.3939411824999866</v>
       </c>
       <c r="L23" s="5">
         <f>K23/io_1!$J$2*1000</f>
-        <v>272.79405007184283</v>
+        <v>38.764550071842912</v>
       </c>
       <c r="M23" t="str">
         <f t="shared" si="1"/>
@@ -4694,7 +3874,7 @@
       </c>
       <c r="S23">
         <f t="shared" si="3"/>
-        <v>138.93926265200002</v>
+        <v>198.01392798800003</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.3">
@@ -4709,7 +3889,7 @@
         <v>22.271000000000001</v>
       </c>
       <c r="D24">
-        <v>617.87800000000004</v>
+        <v>841.94</v>
       </c>
       <c r="F24">
         <v>27.895</v>
@@ -4719,15 +3899,15 @@
       </c>
       <c r="J24" s="5">
         <f>B24+(C24+H24+E24)/1000*io_1!$J$1+(D24+F24*2+G24*2)/1000*io_1!$J$2</f>
-        <v>167.03542963800001</v>
+        <v>203.992888104</v>
       </c>
       <c r="K24" s="5">
         <f t="shared" si="0"/>
-        <v>16.899302014999989</v>
+        <v>0.41498106650001887</v>
       </c>
       <c r="L24" s="5">
         <f>K24/io_1!$J$2*1000</f>
-        <v>102.45540589779492</v>
+        <v>2.5159058977951103</v>
       </c>
       <c r="M24" t="str">
         <f t="shared" si="1"/>
@@ -4739,7 +3919,7 @@
       </c>
       <c r="S24">
         <f t="shared" si="3"/>
-        <v>167.03542963800001</v>
+        <v>203.992888104</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.3">
@@ -4754,7 +3934,7 @@
         <v>22.271000000000001</v>
       </c>
       <c r="D25">
-        <v>697.01400000000001</v>
+        <v>809.16099999999994</v>
       </c>
       <c r="F25">
         <v>9.0549999999999997</v>
@@ -4764,15 +3944,15 @@
       </c>
       <c r="J25" s="5">
         <f>B25+(C25+H25+E25)/1000*io_1!$J$1+(D25+F25*2+G25*2)/1000*io_1!$J$2</f>
-        <v>189.47530664600001</v>
+        <v>207.973169267</v>
       </c>
       <c r="K25" s="5">
         <f t="shared" si="0"/>
-        <v>-5.540574993000007</v>
+        <v>-3.5653000964999819</v>
       </c>
       <c r="L25" s="5">
         <f>K25/io_1!$J$2*1000</f>
-        <v>-33.590846492424696</v>
+        <v>-21.615346492424546</v>
       </c>
       <c r="M25" t="str">
         <f t="shared" si="1"/>
@@ -4784,7 +3964,7 @@
       </c>
       <c r="S25">
         <f t="shared" si="3"/>
-        <v>189.47530664600001</v>
+        <v>207.973169267</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.3">
@@ -4799,7 +3979,7 @@
         <v>22.271000000000001</v>
       </c>
       <c r="D26">
-        <v>463.66</v>
+        <v>606.90700000000004</v>
       </c>
       <c r="F26">
         <v>9.0549999999999997</v>
@@ -4809,15 +3989,15 @@
       </c>
       <c r="J26" s="5">
         <f>B26+(C26+H26+E26)/1000*io_1!$J$1+(D26+F26*2+G26*2)/1000*io_1!$J$2</f>
-        <v>173.47265958400001</v>
+        <v>197.10024950500002</v>
       </c>
       <c r="K26" s="5">
         <f t="shared" si="0"/>
-        <v>10.462072068999987</v>
+        <v>7.307619665499999</v>
       </c>
       <c r="L26" s="5">
         <f>K26/io_1!$J$2*1000</f>
-        <v>63.428409020085645</v>
+        <v>44.303909020085719</v>
       </c>
       <c r="M26" t="str">
         <f t="shared" si="1"/>
@@ -4829,7 +4009,7 @@
       </c>
       <c r="S26">
         <f t="shared" si="3"/>
-        <v>173.47265958400001</v>
+        <v>197.10024950500002</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.3">
@@ -4858,11 +4038,11 @@
       </c>
       <c r="K27" s="5">
         <f t="shared" si="0"/>
-        <v>-16.727694659000036</v>
+        <v>3.7454428584999846</v>
       </c>
       <c r="L27" s="5">
         <f>K27/io_1!$J$2*1000</f>
-        <v>-101.41500190368815</v>
+        <v>22.707498096311966</v>
       </c>
       <c r="M27" t="str">
         <f t="shared" si="1"/>
@@ -4903,11 +4083,11 @@
       </c>
       <c r="K28" s="5">
         <f t="shared" si="0"/>
-        <v>-28.494254639000047</v>
+        <v>-8.0211171215000263</v>
       </c>
       <c r="L28" s="5">
         <f>K28/io_1!$J$2*1000</f>
-        <v>-172.752130366248</v>
+        <v>-48.629630366247895</v>
       </c>
       <c r="M28" t="str">
         <f t="shared" si="1"/>
@@ -4934,7 +4114,7 @@
         <v>22.271000000000001</v>
       </c>
       <c r="D29">
-        <v>706.96299999999997</v>
+        <v>876.69799999999998</v>
       </c>
       <c r="F29">
         <v>24.315000000000001</v>
@@ -4944,15 +4124,15 @@
       </c>
       <c r="J29" s="5">
         <f>B29+(C29+H29+E29)/1000*io_1!$J$1+(D29+F29*2+G29*2)/1000*io_1!$J$2</f>
-        <v>181.08888491300002</v>
+        <v>209.08548501799999</v>
       </c>
       <c r="K29" s="5">
         <f t="shared" si="0"/>
-        <v>2.8458467399999847</v>
+        <v>-4.6776158474999647</v>
       </c>
       <c r="L29" s="5">
         <f>K29/io_1!$J$2*1000</f>
-        <v>17.253516305632761</v>
+        <v>-28.35898369436693</v>
       </c>
       <c r="M29" t="str">
         <f t="shared" si="1"/>
@@ -4964,7 +4144,7 @@
       </c>
       <c r="S29">
         <f t="shared" si="3"/>
-        <v>181.08888491300002</v>
+        <v>209.08548501799999</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.3">
@@ -4993,11 +4173,11 @@
       </c>
       <c r="K30" s="5">
         <f t="shared" si="0"/>
-        <v>-16.082700511000013</v>
+        <v>4.390437006500008</v>
       </c>
       <c r="L30" s="5">
         <f>K30/io_1!$J$2*1000</f>
-        <v>-97.504595593629375</v>
+        <v>26.617904406370734</v>
       </c>
       <c r="M30" t="str">
         <f t="shared" si="1"/>
@@ -5018,7 +4198,7 @@
       </c>
       <c r="C31" s="9">
         <f>MAX(J8:J30)-MIN(J8:J30)</f>
-        <v>76.442551184000052</v>
+        <v>15.328736787000025</v>
       </c>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
@@ -5030,7 +4210,7 @@
       </c>
       <c r="C32" s="6">
         <f>T9-T8</f>
-        <v>76.442551184000052</v>
+        <v>15.328736787000025</v>
       </c>
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
@@ -6234,76 +5414,76 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="K8:K30">
-    <cfRule type="cellIs" dxfId="34" priority="24" operator="between">
+    <cfRule type="cellIs" dxfId="16" priority="24" operator="between">
       <formula>-$Q$4*$Q$2</formula>
       <formula>$Q$4*$Q$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J36:J46">
-    <cfRule type="cellIs" dxfId="33" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="15" priority="17" operator="equal">
       <formula>$O$36</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="18" operator="equal">
       <formula>$O$37</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K36:K46">
-    <cfRule type="cellIs" dxfId="31" priority="14" operator="between">
+    <cfRule type="cellIs" dxfId="13" priority="14" operator="between">
       <formula>-$Q$4*$Q$1</formula>
       <formula>$Q$4*$Q$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L36:L46">
-    <cfRule type="cellIs" dxfId="30" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="12" operator="equal">
       <formula>$O$8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="13" operator="equal">
       <formula>$O$9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F48">
-    <cfRule type="cellIs" dxfId="28" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="10" priority="11" operator="greaterThan">
       <formula>$J$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="27" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="9" priority="10" operator="lessThan">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8:J30">
-    <cfRule type="cellIs" dxfId="26" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
       <formula>$O$9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="25" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="equal">
       <formula>$O$8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J52:J62">
-    <cfRule type="cellIs" dxfId="19" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
       <formula>$O$52</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
       <formula>$O$53</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K52:K62">
-    <cfRule type="cellIs" dxfId="24" priority="5" operator="between">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="between">
       <formula>-$Q$4*$Q$1</formula>
       <formula>$Q$4*$Q$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L52:L62">
-    <cfRule type="cellIs" dxfId="23" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="equal">
       <formula>$O$8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>$O$9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F64">
-    <cfRule type="cellIs" dxfId="21" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>$J$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>

--- a/DDR3 board timings.xlsx
+++ b/DDR3 board timings.xlsx
@@ -2882,8 +2882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B29" workbookViewId="0">
-      <selection activeCell="G43" sqref="G43"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="J46" sqref="J46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3125,7 +3125,7 @@
         <v>22.271000000000001</v>
       </c>
       <c r="D8">
-        <v>372.54899999999998</v>
+        <v>379.072</v>
       </c>
       <c r="E8">
         <v>385.08300000000003</v>
@@ -3141,15 +3141,15 @@
       </c>
       <c r="J8" s="5">
         <f>B8+(C8+H8+E8)/1000*io_1!$J$1+(D8+F8*2+G8*2)/1000*io_1!$J$2</f>
-        <v>208.54384728199997</v>
+        <v>209.61977047099998</v>
       </c>
       <c r="K8" s="5">
         <f>$J$4-J8</f>
-        <v>-4.1359781114999521</v>
+        <v>-5.2119013004999601</v>
       </c>
       <c r="L8" s="5">
         <f>K8/io_1!$J$2*1000</f>
-        <v>-25.075196349647765</v>
+        <v>-31.598196349647818</v>
       </c>
       <c r="M8" t="str">
         <f>IF(J8=$R$8, "Route","")</f>
@@ -3172,7 +3172,7 @@
       </c>
       <c r="S8">
         <f>IF(D8=0,"",J8)</f>
-        <v>208.54384728199997</v>
+        <v>209.61977047099998</v>
       </c>
       <c r="T8">
         <f>MIN(S8:S30)</f>
@@ -3571,7 +3571,7 @@
         <v>365.91</v>
       </c>
       <c r="E17">
-        <v>447.46800000000002</v>
+        <v>486.83800000000002</v>
       </c>
       <c r="F17">
         <v>9.0549999999999997</v>
@@ -3584,15 +3584,15 @@
       </c>
       <c r="J17" s="5">
         <f>B17+(C17+H17+E17)/1000*io_1!$J$1+(D17+F17*2+G17*2)/1000*io_1!$J$2</f>
-        <v>198.44337526000001</v>
+        <v>204.28064705000003</v>
       </c>
       <c r="K17" s="5">
         <f t="shared" si="0"/>
-        <v>5.9644939105000105</v>
+        <v>0.12722212049999371</v>
       </c>
       <c r="L17" s="5">
         <f>K17/io_1!$J$2*1000</f>
-        <v>36.160939903481868</v>
+        <v>0.77130960695509176</v>
       </c>
       <c r="M17" t="str">
         <f t="shared" si="1"/>
@@ -3604,7 +3604,7 @@
       </c>
       <c r="S17">
         <f t="shared" si="3"/>
-        <v>198.44337526000001</v>
+        <v>204.28064705000003</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.3">
@@ -3619,7 +3619,7 @@
         <v>22.271000000000001</v>
       </c>
       <c r="D18">
-        <v>883.68399999999997</v>
+        <v>868.49599999999998</v>
       </c>
       <c r="F18">
         <v>27.895</v>
@@ -3629,15 +3629,15 @@
       </c>
       <c r="J18" s="5">
         <f>B18+(C18+H18+E18)/1000*io_1!$J$1+(D18+F18*2+G18*2)/1000*io_1!$J$2</f>
-        <v>204.677268696</v>
+        <v>202.17211441199998</v>
       </c>
       <c r="K18" s="5">
         <f t="shared" si="0"/>
-        <v>-0.2693995254999777</v>
+        <v>2.2357547585000361</v>
       </c>
       <c r="L18" s="5">
         <f>K18/io_1!$J$2*1000</f>
-        <v>-1.6332886239487439</v>
+        <v>13.554711376051339</v>
       </c>
       <c r="M18" t="str">
         <f t="shared" si="1"/>
@@ -3649,7 +3649,7 @@
       </c>
       <c r="S18">
         <f t="shared" si="3"/>
-        <v>204.677268696</v>
+        <v>202.17211441199998</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.3">
@@ -3799,7 +3799,7 @@
         <v>22.271000000000001</v>
       </c>
       <c r="D22">
-        <v>809.48900000000003</v>
+        <v>816.01199999999994</v>
       </c>
       <c r="F22">
         <v>27.895</v>
@@ -3809,15 +3809,15 @@
       </c>
       <c r="J22" s="5">
         <f>B22+(C22+H22+E22)/1000*io_1!$J$1+(D22+F22*2+G22*2)/1000*io_1!$J$2</f>
-        <v>200.51682281100003</v>
+        <v>201.59274600000001</v>
       </c>
       <c r="K22" s="5">
         <f t="shared" si="0"/>
-        <v>3.8910463594999953</v>
+        <v>2.8151231705000157</v>
       </c>
       <c r="L22" s="5">
         <f>K22/io_1!$J$2*1000</f>
-        <v>23.590248507059986</v>
+        <v>17.067248507060111</v>
       </c>
       <c r="M22" t="str">
         <f t="shared" si="1"/>
@@ -3829,7 +3829,7 @@
       </c>
       <c r="S22">
         <f t="shared" si="3"/>
-        <v>200.51682281100003</v>
+        <v>201.59274600000001</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.3">
@@ -3889,7 +3889,7 @@
         <v>22.271000000000001</v>
       </c>
       <c r="D24">
-        <v>841.94</v>
+        <v>848.46299999999997</v>
       </c>
       <c r="F24">
         <v>27.895</v>
@@ -3899,15 +3899,15 @@
       </c>
       <c r="J24" s="5">
         <f>B24+(C24+H24+E24)/1000*io_1!$J$1+(D24+F24*2+G24*2)/1000*io_1!$J$2</f>
-        <v>203.992888104</v>
+        <v>205.06881129299998</v>
       </c>
       <c r="K24" s="5">
         <f t="shared" si="0"/>
-        <v>0.41498106650001887</v>
+        <v>-0.66094212249996076</v>
       </c>
       <c r="L24" s="5">
         <f>K24/io_1!$J$2*1000</f>
-        <v>2.5159058977951103</v>
+        <v>-4.0070941022047659</v>
       </c>
       <c r="M24" t="str">
         <f t="shared" si="1"/>
@@ -3919,7 +3919,7 @@
       </c>
       <c r="S24">
         <f t="shared" si="3"/>
-        <v>203.992888104</v>
+        <v>205.06881129299998</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.3">
@@ -4273,7 +4273,7 @@
         <v>22.271000000000001</v>
       </c>
       <c r="D36">
-        <v>465.80200000000002</v>
+        <v>612.30999999999995</v>
       </c>
       <c r="F36">
         <v>9.0549999999999997</v>
@@ -4283,15 +4283,15 @@
       </c>
       <c r="J36" s="5">
         <f>B36+(C36+H36+E36)/1000*io_1!$J$1+(D36+F36*2+G36*2)/1000*io_1!$J$2</f>
-        <v>146.10300573000001</v>
+        <v>170.26847477400003</v>
       </c>
       <c r="K36" s="5">
         <f>$F$48-J36</f>
-        <v>16.252937433000028</v>
+        <v>4.2490456649999828</v>
       </c>
       <c r="L36" s="5">
         <f>K36/io_1!$J$2*1000</f>
-        <v>98.53669105691074</v>
+        <v>25.760691056910463</v>
       </c>
       <c r="M36" t="str">
         <f>IF(J36=$R$36, "Route","")</f>
@@ -4302,7 +4302,7 @@
       </c>
       <c r="O36" s="5">
         <f>MIN(J36:J46)</f>
-        <v>142.18855371000001</v>
+        <v>168.92994562700002</v>
       </c>
       <c r="Q36">
         <f>IF(D36=0,J36,0)</f>
@@ -4314,11 +4314,11 @@
       </c>
       <c r="S36">
         <f>IF(D36=0,"",J36)</f>
-        <v>146.10300573000001</v>
+        <v>170.26847477400003</v>
       </c>
       <c r="T36">
         <f>MIN(S36:S46)</f>
-        <v>142.18855371000001</v>
+        <v>168.92994562700002</v>
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.3">
@@ -4333,7 +4333,7 @@
         <v>22.271000000000001</v>
       </c>
       <c r="D37">
-        <v>571.98599999999999</v>
+        <v>632.27599999999995</v>
       </c>
       <c r="F37">
         <v>12.635</v>
@@ -4343,15 +4343,15 @@
       </c>
       <c r="J37" s="5">
         <f>B37+(C37+H37+E37)/1000*io_1!$J$1+(D37+F37*2+G37*2)/1000*io_1!$J$2</f>
-        <v>162.33530512200002</v>
+        <v>172.27971859199999</v>
       </c>
       <c r="K37" s="5">
         <f t="shared" ref="K37:K46" si="4">$F$48-J37</f>
-        <v>2.0638041000012208E-2</v>
+        <v>2.2378018470000143</v>
       </c>
       <c r="L37" s="5">
         <f>K37/io_1!$J$2*1000</f>
-        <v>0.12512226041730906</v>
+        <v>13.567122260417321</v>
       </c>
       <c r="M37" t="str">
         <f t="shared" ref="M37:M46" si="5">IF(J37=$R$36, "Route","")</f>
@@ -4362,7 +4362,7 @@
       </c>
       <c r="O37" s="5">
         <f>MAX(J36:J46)</f>
-        <v>183.47388644400002</v>
+        <v>181.34909071800001</v>
       </c>
       <c r="Q37">
         <f t="shared" ref="Q37:Q46" si="6">IF(D37=0,J37,0)</f>
@@ -4370,11 +4370,11 @@
       </c>
       <c r="S37">
         <f t="shared" ref="S37:S46" si="7">IF(D37=0,"",J37)</f>
-        <v>162.33530512200002</v>
+        <v>172.27971859199999</v>
       </c>
       <c r="T37">
         <f>MAX(S36:S46)</f>
-        <v>183.47388644400002</v>
+        <v>181.34909071800001</v>
       </c>
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.3">
@@ -4389,7 +4389,7 @@
         <v>22.271000000000001</v>
       </c>
       <c r="D38">
-        <v>371.31400000000002</v>
+        <v>518.77800000000002</v>
       </c>
       <c r="F38">
         <v>9.0549999999999997</v>
@@ -4399,15 +4399,15 @@
       </c>
       <c r="J38" s="5">
         <f>B38+(C38+H38+E38)/1000*io_1!$J$1+(D38+F38*2+G38*2)/1000*io_1!$J$2</f>
-        <v>146.242871546</v>
+        <v>170.56602609800001</v>
       </c>
       <c r="K38" s="5">
         <f t="shared" si="4"/>
-        <v>16.113071617000031</v>
+        <v>3.9514943410000001</v>
       </c>
       <c r="L38" s="5">
         <f>K38/io_1!$J$2*1000</f>
-        <v>97.688726511582971</v>
+        <v>23.956726511582787</v>
       </c>
       <c r="M38" t="str">
         <f t="shared" si="5"/>
@@ -4419,7 +4419,7 @@
       </c>
       <c r="S38">
         <f t="shared" si="7"/>
-        <v>146.242871546</v>
+        <v>170.56602609800001</v>
       </c>
     </row>
     <row r="39" spans="1:20" x14ac:dyDescent="0.3">
@@ -4434,7 +4434,7 @@
         <v>22.271000000000001</v>
       </c>
       <c r="D39">
-        <v>589.48</v>
+        <v>576.59799999999996</v>
       </c>
       <c r="F39">
         <v>24.315000000000001</v>
@@ -4444,15 +4444,15 @@
       </c>
       <c r="J39" s="5">
         <f>B39+(C39+H39+E39)/1000*io_1!$J$1+(D39+F39*2+G39*2)/1000*io_1!$J$2</f>
-        <v>183.47388644400002</v>
+        <v>181.34909071800001</v>
       </c>
       <c r="K39" s="5">
         <f t="shared" si="4"/>
-        <v>-21.117943280999981</v>
+        <v>-6.8315702790000046</v>
       </c>
       <c r="L39" s="5">
         <f>K39/io_1!$J$2*1000</f>
-        <v>-128.03176419126595</v>
+        <v>-41.417764191266095</v>
       </c>
       <c r="M39" t="str">
         <f t="shared" si="5"/>
@@ -4464,7 +4464,7 @@
       </c>
       <c r="S39">
         <f t="shared" si="7"/>
-        <v>183.47388644400002</v>
+        <v>181.34909071800001</v>
       </c>
     </row>
     <row r="40" spans="1:20" x14ac:dyDescent="0.3">
@@ -4479,7 +4479,7 @@
         <v>22.271000000000001</v>
       </c>
       <c r="D40">
-        <v>407.98200000000003</v>
+        <v>581.77</v>
       </c>
       <c r="F40">
         <v>27.895</v>
@@ -4489,15 +4489,15 @@
       </c>
       <c r="J40" s="5">
         <f>B40+(C40+H40+E40)/1000*io_1!$J$1+(D40+F40*2+G40*2)/1000*io_1!$J$2</f>
-        <v>142.18855371000001</v>
+        <v>170.85366779399999</v>
       </c>
       <c r="K40" s="5">
         <f t="shared" si="4"/>
-        <v>20.167389453000027</v>
+        <v>3.6638526450000199</v>
       </c>
       <c r="L40" s="5">
         <f>K40/io_1!$J$2*1000</f>
-        <v>122.26884107237061</v>
+        <v>22.212841072370576</v>
       </c>
       <c r="M40" t="str">
         <f t="shared" si="5"/>
@@ -4509,7 +4509,7 @@
       </c>
       <c r="S40">
         <f t="shared" si="7"/>
-        <v>142.18855371000001</v>
+        <v>170.85366779399999</v>
       </c>
     </row>
     <row r="41" spans="1:20" x14ac:dyDescent="0.3">
@@ -4524,7 +4524,7 @@
         <v>22.271000000000001</v>
       </c>
       <c r="D41">
-        <v>510.34399999999999</v>
+        <v>570.63400000000001</v>
       </c>
       <c r="F41">
         <v>12.635</v>
@@ -4534,15 +4534,15 @@
       </c>
       <c r="J41" s="5">
         <f>B41+(C41+H41+E41)/1000*io_1!$J$1+(D41+F41*2+G41*2)/1000*io_1!$J$2</f>
-        <v>164.75488871600004</v>
+        <v>174.69930218600001</v>
       </c>
       <c r="K41" s="5">
         <f t="shared" si="4"/>
-        <v>-2.3989455530000043</v>
+        <v>-0.18178174700000227</v>
       </c>
       <c r="L41" s="5">
         <f>K41/io_1!$J$2*1000</f>
-        <v>-14.544088278981249</v>
+        <v>-1.1020882789812374</v>
       </c>
       <c r="M41" t="str">
         <f t="shared" si="5"/>
@@ -4554,7 +4554,7 @@
       </c>
       <c r="S41">
         <f t="shared" si="7"/>
-        <v>164.75488871600004</v>
+        <v>174.69930218600001</v>
       </c>
     </row>
     <row r="42" spans="1:20" x14ac:dyDescent="0.3">
@@ -4569,7 +4569,7 @@
         <v>22.271000000000001</v>
       </c>
       <c r="D42">
-        <v>465.80200000000002</v>
+        <v>552.976</v>
       </c>
       <c r="F42">
         <v>12.635</v>
@@ -4579,15 +4579,15 @@
       </c>
       <c r="J42" s="5">
         <f>B42+(C42+H42+E42)/1000*io_1!$J$1+(D42+F42*2+G42*2)/1000*io_1!$J$2</f>
-        <v>159.95699761000003</v>
+        <v>174.33573869200001</v>
       </c>
       <c r="K42" s="5">
         <f t="shared" si="4"/>
-        <v>2.3989455530000043</v>
+        <v>0.18178174700000227</v>
       </c>
       <c r="L42" s="5">
         <f>K42/io_1!$J$2*1000</f>
-        <v>14.544088278981249</v>
+        <v>1.1020882789812374</v>
       </c>
       <c r="M42" t="str">
         <f t="shared" si="5"/>
@@ -4599,7 +4599,7 @@
       </c>
       <c r="S42">
         <f t="shared" si="7"/>
-        <v>159.95699761000003</v>
+        <v>174.33573869200001</v>
       </c>
     </row>
     <row r="43" spans="1:20" x14ac:dyDescent="0.3">
@@ -4614,7 +4614,7 @@
         <v>22.271000000000001</v>
       </c>
       <c r="D43">
-        <v>445.04599999999999</v>
+        <v>584.07600000000002</v>
       </c>
       <c r="F43">
         <v>27.895</v>
@@ -4624,15 +4624,15 @@
       </c>
       <c r="J43" s="5">
         <f>B43+(C43+H43+E43)/1000*io_1!$J$1+(D43+F43*2+G43*2)/1000*io_1!$J$2</f>
-        <v>153.33700106200001</v>
+        <v>176.26902635200003</v>
       </c>
       <c r="K43" s="5">
         <f t="shared" si="4"/>
-        <v>9.0189421010000217</v>
+        <v>-1.7515059130000168</v>
       </c>
       <c r="L43" s="5">
         <f>K43/io_1!$J$2*1000</f>
-        <v>54.679144316521594</v>
+        <v>-10.618855683478637</v>
       </c>
       <c r="M43" t="str">
         <f t="shared" si="5"/>
@@ -4644,7 +4644,7 @@
       </c>
       <c r="S43">
         <f t="shared" si="7"/>
-        <v>153.33700106200001</v>
+        <v>176.26902635200003</v>
       </c>
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.3">
@@ -4659,7 +4659,7 @@
         <v>22.271000000000001</v>
       </c>
       <c r="D44">
-        <v>510.34399999999999</v>
+        <v>576.202</v>
       </c>
       <c r="F44">
         <v>24.315000000000001</v>
@@ -4669,15 +4669,15 @@
       </c>
       <c r="J44" s="5">
         <f>B44+(C44+H44+E44)/1000*io_1!$J$1+(D44+F44*2+G44*2)/1000*io_1!$J$2</f>
-        <v>158.27545719600002</v>
+        <v>169.13827329</v>
       </c>
       <c r="K44" s="5">
         <f t="shared" si="4"/>
-        <v>4.0804859670000155</v>
+        <v>5.3792471490000082</v>
       </c>
       <c r="L44" s="5">
         <f>K44/io_1!$J$2*1000</f>
-        <v>24.73876410032566</v>
+        <v>32.612764100325613</v>
       </c>
       <c r="M44" t="str">
         <f t="shared" si="5"/>
@@ -4689,7 +4689,7 @@
       </c>
       <c r="S44">
         <f t="shared" si="7"/>
-        <v>158.27545719600002</v>
+        <v>169.13827329</v>
       </c>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.3">
@@ -4704,7 +4704,7 @@
         <v>22.271000000000001</v>
       </c>
       <c r="D45">
-        <v>595.60699999999997</v>
+        <v>651.68100000000004</v>
       </c>
       <c r="F45">
         <v>9.0549999999999997</v>
@@ -4714,15 +4714,15 @@
       </c>
       <c r="J45" s="5">
         <f>B45+(C45+H45+E45)/1000*io_1!$J$1+(D45+F45*2+G45*2)/1000*io_1!$J$2</f>
-        <v>159.680931845</v>
+        <v>168.92994562700002</v>
       </c>
       <c r="K45" s="5">
         <f t="shared" si="4"/>
-        <v>2.6750113180000312</v>
+        <v>5.5875748119999855</v>
       </c>
       <c r="L45" s="5">
         <f>K45/io_1!$J$2*1000</f>
-        <v>16.217792316133643</v>
+        <v>33.875792316133364</v>
       </c>
       <c r="M45" t="str">
         <f t="shared" si="5"/>
@@ -4734,7 +4734,7 @@
       </c>
       <c r="S45">
         <f t="shared" si="7"/>
-        <v>159.680931845</v>
+        <v>168.92994562700002</v>
       </c>
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.3">
@@ -4749,7 +4749,7 @@
         <v>22.271000000000001</v>
       </c>
       <c r="D46">
-        <v>447.35199999999998</v>
+        <v>553.53599999999994</v>
       </c>
       <c r="F46">
         <v>27.895</v>
@@ -4759,15 +4759,15 @@
       </c>
       <c r="J46" s="5">
         <f>B46+(C46+H46+E46)/1000*io_1!$J$1+(D46+F46*2+G46*2)/1000*io_1!$J$2</f>
-        <v>156.97185962</v>
+        <v>174.48616713199999</v>
       </c>
       <c r="K46" s="5">
         <f t="shared" si="4"/>
-        <v>5.3840835430000311</v>
+        <v>3.1353307000017594E-2</v>
       </c>
       <c r="L46" s="5">
         <f>K46/io_1!$J$2*1000</f>
-        <v>32.642085708396422</v>
+        <v>0.19008570839634051</v>
       </c>
       <c r="M46" t="str">
         <f t="shared" si="5"/>
@@ -4779,7 +4779,7 @@
       </c>
       <c r="S46">
         <f t="shared" si="7"/>
-        <v>156.97185962</v>
+        <v>174.48616713199999</v>
       </c>
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.3">
@@ -4788,14 +4788,14 @@
       </c>
       <c r="C47" s="9">
         <f>MAX(J36:J46)-MIN(J36:J46)</f>
-        <v>41.285332734000008</v>
+        <v>12.41914509099999</v>
       </c>
       <c r="E47" s="6" t="s">
         <v>185</v>
       </c>
       <c r="F47" s="5">
         <f>MAX(J41:J42)-MIN(J41:J42)</f>
-        <v>4.7978911060000087</v>
+        <v>0.36356349400000454</v>
       </c>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.3">
@@ -4804,14 +4804,14 @@
       </c>
       <c r="C48" s="6">
         <f>T37-T36</f>
-        <v>41.285332734000008</v>
+        <v>12.41914509099999</v>
       </c>
       <c r="E48" s="6" t="s">
         <v>186</v>
       </c>
       <c r="F48" s="5">
         <f>AVERAGE(J41:J42)</f>
-        <v>162.35594316300003</v>
+        <v>174.51752043900001</v>
       </c>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.3">
@@ -4871,7 +4871,7 @@
         <v>22.271000000000001</v>
       </c>
       <c r="D52">
-        <v>402.81</v>
+        <v>474.23599999999999</v>
       </c>
       <c r="F52">
         <v>12.635</v>
@@ -4881,15 +4881,15 @@
       </c>
       <c r="J52" s="5">
         <f>B52+(C52+H52+E52)/1000*io_1!$J$1+(D52+F52*2+G52*2)/1000*io_1!$J$2</f>
-        <v>142.90440815400001</v>
+        <v>154.685626872</v>
       </c>
       <c r="K52" s="5">
         <f>$F$64-J52</f>
-        <v>2.6162656320000224</v>
+        <v>2.7276021570000069</v>
       </c>
       <c r="L52" s="5">
         <f>K52/io_1!$J$2*1000</f>
-        <v>15.861634819301349</v>
+        <v>16.536634819301252</v>
       </c>
       <c r="M52" t="str">
         <f>IF(J52=$R$52, "Route","")</f>
@@ -4900,7 +4900,7 @@
       </c>
       <c r="O52" s="5">
         <f>MIN(J52:J62)</f>
-        <v>142.90440815400001</v>
+        <v>151.90009332100001</v>
       </c>
       <c r="Q52">
         <f>IF(D52=0,J52,0)</f>
@@ -4912,11 +4912,11 @@
       </c>
       <c r="S52">
         <f>IF(D52=0,"",J52)</f>
-        <v>142.90440815400001</v>
+        <v>154.685626872</v>
       </c>
       <c r="T52">
         <f>MIN(S52:S62)</f>
-        <v>142.90440815400001</v>
+        <v>151.90009332100001</v>
       </c>
     </row>
     <row r="53" spans="1:20" x14ac:dyDescent="0.3">
@@ -4945,11 +4945,11 @@
       </c>
       <c r="K53" s="5">
         <f t="shared" ref="K53:K62" si="8">$F$64-J53</f>
-        <v>-6.9596411059999923</v>
+        <v>4.9329141369999832</v>
       </c>
       <c r="L53" s="5">
         <f>K53/io_1!$J$2*1000</f>
-        <v>-42.19421925149895</v>
+        <v>29.906780748500893</v>
       </c>
       <c r="M53" t="str">
         <f t="shared" ref="M53:M62" si="9">IF(J53=$R$52, "Route","")</f>
@@ -5001,11 +5001,11 @@
       </c>
       <c r="K54" s="5">
         <f t="shared" si="8"/>
-        <v>-8.5118319439999937</v>
+        <v>3.3807232989999818</v>
       </c>
       <c r="L54" s="5">
         <f>K54/io_1!$J$2*1000</f>
-        <v>-51.604687340475152</v>
+        <v>20.496312659524694</v>
       </c>
       <c r="M54" t="str">
         <f t="shared" si="9"/>
@@ -5046,11 +5046,11 @@
       </c>
       <c r="K55" s="5">
         <f t="shared" si="8"/>
-        <v>-16.084466127999974</v>
+        <v>-4.1919108849999986</v>
       </c>
       <c r="L55" s="5">
         <f>K55/io_1!$J$2*1000</f>
-        <v>-97.515300000606118</v>
+        <v>-25.414300000606257</v>
       </c>
       <c r="M55" t="str">
         <f t="shared" si="9"/>
@@ -5091,11 +5091,11 @@
       </c>
       <c r="K56" s="5">
         <f t="shared" si="8"/>
-        <v>-10.115287215999984</v>
+        <v>1.777268026999991</v>
       </c>
       <c r="L56" s="5">
         <f>K56/io_1!$J$2*1000</f>
-        <v>-61.325956336431275</v>
+        <v>10.775043663568571</v>
       </c>
       <c r="M56" t="str">
         <f t="shared" si="9"/>
@@ -5122,7 +5122,7 @@
         <v>22.271000000000001</v>
       </c>
       <c r="D57">
-        <v>371.31400000000002</v>
+        <v>439.47800000000001</v>
       </c>
       <c r="F57">
         <v>27.895</v>
@@ -5132,15 +5132,15 @@
       </c>
       <c r="J57" s="5">
         <f>B57+(C57+H57+E57)/1000*io_1!$J$1+(D57+F57*2+G57*2)/1000*io_1!$J$2</f>
-        <v>146.32392378600002</v>
+        <v>157.56709843800002</v>
       </c>
       <c r="K57" s="5">
         <f t="shared" si="8"/>
-        <v>-0.80324999999999136</v>
+        <v>-0.15386940900000923</v>
       </c>
       <c r="L57" s="5">
         <f>K57/io_1!$J$2*1000</f>
-        <v>-4.8698641348829064</v>
+        <v>-0.93286413488301534</v>
       </c>
       <c r="M57" t="str">
         <f t="shared" si="9"/>
@@ -5152,7 +5152,7 @@
       </c>
       <c r="S57">
         <f t="shared" si="11"/>
-        <v>146.32392378600002</v>
+        <v>157.56709843800002</v>
       </c>
     </row>
     <row r="58" spans="1:20" x14ac:dyDescent="0.3">
@@ -5167,7 +5167,7 @@
         <v>22.271000000000001</v>
       </c>
       <c r="D58">
-        <v>371.31400000000002</v>
+        <v>447.35199999999998</v>
       </c>
       <c r="F58">
         <v>27.895</v>
@@ -5177,15 +5177,15 @@
       </c>
       <c r="J58" s="5">
         <f>B58+(C58+H58+E58)/1000*io_1!$J$1+(D58+F58*2+G58*2)/1000*io_1!$J$2</f>
-        <v>144.71742378600004</v>
+        <v>157.25935962</v>
       </c>
       <c r="K58" s="5">
         <f t="shared" si="8"/>
-        <v>0.80324999999999136</v>
+        <v>0.15386940900000923</v>
       </c>
       <c r="L58" s="5">
         <f>K58/io_1!$J$2*1000</f>
-        <v>4.8698641348829064</v>
+        <v>0.93286413488301534</v>
       </c>
       <c r="M58" t="str">
         <f t="shared" si="9"/>
@@ -5197,7 +5197,7 @@
       </c>
       <c r="S58">
         <f t="shared" si="11"/>
-        <v>144.71742378600004</v>
+        <v>157.25935962</v>
       </c>
     </row>
     <row r="59" spans="1:20" x14ac:dyDescent="0.3">
@@ -5212,25 +5212,25 @@
         <v>22.271000000000001</v>
       </c>
       <c r="D59">
-        <v>371.31400000000002</v>
+        <v>425.08100000000002</v>
       </c>
       <c r="F59">
-        <v>12.635</v>
+        <v>24.315000000000001</v>
       </c>
       <c r="H59">
         <v>22.271000000000001</v>
       </c>
       <c r="J59" s="5">
         <f>B59+(C59+H59+E59)/1000*io_1!$J$1+(D59+F59*2+G59*2)/1000*io_1!$J$2</f>
-        <v>143.53836342599999</v>
+        <v>156.25992218700003</v>
       </c>
       <c r="K59" s="5">
         <f t="shared" si="8"/>
-        <v>1.9823103600000422</v>
+        <v>1.1533068419999779</v>
       </c>
       <c r="L59" s="5">
         <f>K59/io_1!$J$2*1000</f>
-        <v>12.018153907713829</v>
+        <v>6.9921539077134396</v>
       </c>
       <c r="M59" t="str">
         <f t="shared" si="9"/>
@@ -5242,7 +5242,7 @@
       </c>
       <c r="S59">
         <f t="shared" si="11"/>
-        <v>143.53836342599999</v>
+        <v>156.25992218700003</v>
       </c>
     </row>
     <row r="60" spans="1:20" x14ac:dyDescent="0.3">
@@ -5271,11 +5271,11 @@
       </c>
       <c r="K60" s="5">
         <f t="shared" si="8"/>
-        <v>-10.061518113999966</v>
+        <v>1.8310371290000091</v>
       </c>
       <c r="L60" s="5">
         <f>K60/io_1!$J$2*1000</f>
-        <v>-60.999970377645404</v>
+        <v>11.101029622354444</v>
       </c>
       <c r="M60" t="str">
         <f t="shared" si="9"/>
@@ -5316,11 +5316,11 @@
       </c>
       <c r="K61" s="5">
         <f t="shared" si="8"/>
-        <v>-6.3794195349999825</v>
+        <v>5.513135707999993</v>
       </c>
       <c r="L61" s="5">
         <f>K61/io_1!$J$2*1000</f>
-        <v>-38.676509673038453</v>
+        <v>33.42449032696139</v>
       </c>
       <c r="M61" t="str">
         <f t="shared" si="9"/>
@@ -5361,11 +5361,11 @@
       </c>
       <c r="K62" s="5">
         <f t="shared" si="8"/>
-        <v>-9.4854213999999786</v>
+        <v>2.4071338429999969</v>
       </c>
       <c r="L62" s="5">
         <f>K62/io_1!$J$2*1000</f>
-        <v>-57.507268571567018</v>
+        <v>14.593731428432832</v>
       </c>
       <c r="M62" t="str">
         <f t="shared" si="9"/>
@@ -5386,14 +5386,14 @@
       </c>
       <c r="C63" s="9">
         <f>MAX(J52:J62)-MIN(J52:J62)</f>
-        <v>18.700731759999996</v>
+        <v>9.7050465929999916</v>
       </c>
       <c r="E63" s="6" t="s">
         <v>185</v>
       </c>
       <c r="F63" s="5">
         <f>MAX(J57:J58)-MIN(J57:J58)</f>
-        <v>1.6064999999999827</v>
+        <v>0.30773881800001845</v>
       </c>
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.3">
@@ -5402,14 +5402,14 @@
       </c>
       <c r="C64" s="6">
         <f>T53-T52</f>
-        <v>18.700731759999996</v>
+        <v>9.7050465929999916</v>
       </c>
       <c r="E64" s="6" t="s">
         <v>186</v>
       </c>
       <c r="F64" s="5">
         <f>AVERAGE(J57:J58)</f>
-        <v>145.52067378600003</v>
+        <v>157.41322902900001</v>
       </c>
     </row>
   </sheetData>

--- a/DDR3 board timings.xlsx
+++ b/DDR3 board timings.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16548" windowHeight="6036" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16548" windowHeight="6036" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Pin delays - All" sheetId="4" r:id="rId1"/>
@@ -3870,47 +3870,7 @@
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
     <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="32">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C6500"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="28">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -16790,76 +16750,76 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="K8:K30">
-    <cfRule type="cellIs" dxfId="31" priority="24" operator="between">
+    <cfRule type="cellIs" dxfId="27" priority="24" operator="between">
       <formula>-$Q$4*$Q$2</formula>
       <formula>$Q$4*$Q$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J36:J46">
-    <cfRule type="cellIs" dxfId="30" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="17" operator="equal">
       <formula>$O$36</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="29" priority="18" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="18" operator="equal">
       <formula>$O$37</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K36:K46">
-    <cfRule type="cellIs" dxfId="28" priority="14" operator="between">
+    <cfRule type="cellIs" dxfId="24" priority="14" operator="between">
       <formula>-$Q$4*$Q$1</formula>
       <formula>$Q$4*$Q$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L36:L46">
-    <cfRule type="cellIs" dxfId="27" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="23" priority="12" operator="equal">
       <formula>$O$8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="13" operator="equal">
       <formula>$O$9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F48">
-    <cfRule type="cellIs" dxfId="25" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="21" priority="10" operator="lessThan">
       <formula>$J$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="20" priority="11" operator="greaterThan">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J8:J30">
-    <cfRule type="cellIs" dxfId="23" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="8" operator="equal">
       <formula>$O$8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="9" operator="equal">
       <formula>$O$9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J52:J62">
-    <cfRule type="cellIs" dxfId="21" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="6" operator="equal">
       <formula>$O$52</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="7" operator="equal">
       <formula>$O$53</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K52:K62">
-    <cfRule type="cellIs" dxfId="19" priority="5" operator="between">
+    <cfRule type="cellIs" dxfId="15" priority="5" operator="between">
       <formula>-$Q$4*$Q$1</formula>
       <formula>$Q$4*$Q$1</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L52:L62">
-    <cfRule type="cellIs" dxfId="18" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="3" operator="equal">
       <formula>$O$8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="4" operator="equal">
       <formula>$O$9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F64">
-    <cfRule type="cellIs" dxfId="16" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="12" priority="1" operator="lessThan">
       <formula>$J$4</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="11" priority="2" operator="greaterThan">
       <formula>$J$4</formula>
     </cfRule>
   </conditionalFormatting>
@@ -16873,7 +16833,7 @@
   <dimension ref="A1:O7"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16933,14 +16893,14 @@
         <v>1202.3019999999999</v>
       </c>
       <c r="F2" s="14">
-        <v>9.0549999999999997</v>
+        <v>27.895</v>
       </c>
       <c r="H2">
         <v>45.079000000000001</v>
       </c>
       <c r="J2" s="5">
         <f>B2+(C2+H2+E2)/1000*io_1!$J$1+(D2+F2*2+G2*2)/1000*io_1!$J$2</f>
-        <v>311.59919896599996</v>
+        <v>317.81425120599999</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>1049</v>
@@ -16976,11 +16936,11 @@
       </c>
       <c r="K3" s="5">
         <f>$J$2-J3</f>
-        <v>-30.99478761000006</v>
+        <v>-24.779735370000026</v>
       </c>
       <c r="L3" s="5">
         <f>K3/io_1!$J$2*1000</f>
-        <v>-187.91211272985248</v>
+        <v>-150.23211272985228</v>
       </c>
       <c r="N3" s="8"/>
       <c r="O3" s="5"/>
@@ -16996,25 +16956,25 @@
         <v>22.271000000000001</v>
       </c>
       <c r="D4">
-        <v>1167.4290000000001</v>
+        <v>1126.1479999999999</v>
       </c>
       <c r="F4" s="14">
         <v>27.895</v>
       </c>
       <c r="H4">
-        <v>46.26</v>
+        <v>24.448</v>
       </c>
       <c r="J4" s="5">
         <f>B4+(C4+H4+E4)/1000*io_1!$J$1+(D4+F4*2+G4*2)/1000*io_1!$J$2</f>
-        <v>353.736297294</v>
+        <v>343.69328550699998</v>
       </c>
       <c r="K4" s="5">
         <f t="shared" ref="K4:K6" si="0">$J$2-J4</f>
-        <v>-42.137098328000036</v>
+        <v>-25.87903430099999</v>
       </c>
       <c r="L4" s="5">
         <f>K4/io_1!$J$2*1000</f>
-        <v>-255.46460491200011</v>
+        <v>-156.89683285134859</v>
       </c>
       <c r="N4" s="8"/>
     </row>
@@ -17043,11 +17003,11 @@
       </c>
       <c r="K5" s="5">
         <f t="shared" si="0"/>
-        <v>23.158762641999942</v>
+        <v>29.373814881999976</v>
       </c>
       <c r="L5" s="5">
         <f>K5/io_1!$J$2*1000</f>
-        <v>140.40464064555599</v>
+        <v>178.08464064555619</v>
       </c>
       <c r="N5" s="8"/>
     </row>
@@ -17062,7 +17022,7 @@
         <v>22.271000000000001</v>
       </c>
       <c r="D6">
-        <v>1179.24</v>
+        <v>1165.402</v>
       </c>
       <c r="F6" s="14">
         <v>27.895</v>
@@ -17072,15 +17032,15 @@
       </c>
       <c r="J6" s="5">
         <f>B6+(C6+H6+E6)/1000*io_1!$J$1+(D6+F6*2+G6*2)/1000*io_1!$J$2</f>
-        <v>307.76879928200003</v>
+        <v>305.48631804800004</v>
       </c>
       <c r="K6" s="5">
         <f t="shared" si="0"/>
-        <v>3.8303996839999286</v>
+        <v>12.327933157999951</v>
       </c>
       <c r="L6" s="5">
         <f>K6/io_1!$J$2*1000</f>
-        <v>23.222565880333985</v>
+        <v>74.740565880334117</v>
       </c>
       <c r="N6" s="8"/>
     </row>
@@ -17098,37 +17058,37 @@
         <v>1105.2280000000001</v>
       </c>
       <c r="F7" s="14">
-        <v>27.895</v>
+        <v>9.0549999999999997</v>
       </c>
       <c r="H7">
         <v>29.788</v>
       </c>
       <c r="J7" s="5">
         <f>B7+(C7+H7+E7)/1000*io_1!$J$1+(D7+F7*2+G7*2)/1000*io_1!$J$2</f>
-        <v>312.35542372700002</v>
+        <v>306.14037148699998</v>
       </c>
       <c r="K7" s="5">
         <f>$J$2-J7</f>
-        <v>-0.75622476100005542</v>
+        <v>11.673879719000013</v>
       </c>
       <c r="L7" s="5">
         <f>K7/io_1!$J$2*1000</f>
-        <v>-4.5847641973291093</v>
+        <v>70.77523580267129</v>
       </c>
       <c r="N7" s="8"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="K2:K7">
-    <cfRule type="cellIs" dxfId="14" priority="3" operator="between">
+    <cfRule type="cellIs" dxfId="10" priority="3" operator="between">
       <formula>-$Q$4*$Q$2</formula>
       <formula>$Q$4*$Q$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J7">
-    <cfRule type="cellIs" dxfId="13" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
       <formula>$O$8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
       <formula>$O$9</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17141,8 +17101,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17612,7 +17572,7 @@
         <v>22.271000000000001</v>
       </c>
       <c r="D14">
-        <v>1606.723</v>
+        <v>1505.876</v>
       </c>
       <c r="F14" s="14">
         <v>9.0549999999999997</v>
@@ -17625,34 +17585,34 @@
       </c>
       <c r="M14" s="5">
         <f>B14+(C14+J14+E14)/1000*io_1!$J$1+(D14+F14+G14+H14+I14+L14*31.496)/1000*io_1!$J$2</f>
-        <v>414.02578323799997</v>
+        <v>397.39177651700004</v>
       </c>
       <c r="N14" s="5">
         <f t="shared" si="1"/>
-        <v>-31.184012759999916</v>
+        <v>-14.550006038999982</v>
       </c>
       <c r="O14" s="5">
         <f>N14/io_1!$J$2*1000</f>
-        <v>-189.05932813153584</v>
+        <v>-88.212328131536239</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="N2:N7">
-    <cfRule type="cellIs" dxfId="11" priority="8" operator="between">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="between">
       <formula>-$T$4*$T$2</formula>
       <formula>$T$4*$T$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M7 M9:M14">
-    <cfRule type="cellIs" dxfId="10" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
       <formula>$R$8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
       <formula>$R$9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N9:N14">
-    <cfRule type="cellIs" dxfId="8" priority="5" operator="between">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="between">
       <formula>-$T$4*$T$2</formula>
       <formula>$T$4*$T$2</formula>
     </cfRule>
@@ -17665,7 +17625,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
@@ -18135,18 +18095,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="K2:K9">
-    <cfRule type="cellIs" dxfId="7" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
       <formula>$N$8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
       <formula>$N$9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11:K18">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
       <formula>$N$8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
       <formula>$N$9</formula>
     </cfRule>
   </conditionalFormatting>

--- a/DDR3 board timings.xlsx
+++ b/DDR3 board timings.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16548" windowHeight="6036" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16548" windowHeight="6036" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Pin delays - All" sheetId="4" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1627" uniqueCount="1087">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1631" uniqueCount="1090">
   <si>
     <t>#Top: ios   Floorplan: io_1   Part: xc7z020clg484-1</t>
   </si>
@@ -3286,6 +3286,15 @@
   </si>
   <si>
     <t>NEEDS UPDATE ON GB_* LINES</t>
+  </si>
+  <si>
+    <t>ps/inch</t>
+  </si>
+  <si>
+    <t>ps/mil</t>
+  </si>
+  <si>
+    <t>mil</t>
   </si>
 </sst>
 </file>
@@ -12948,7 +12957,7 @@
   <dimension ref="A1:J53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7:D17"/>
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14218,8 +14227,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T64"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14527,7 +14536,7 @@
         <v>22.271000000000001</v>
       </c>
       <c r="D9">
-        <v>828.26700000000005</v>
+        <v>831.529</v>
       </c>
       <c r="F9">
         <v>12.635</v>
@@ -14537,15 +14546,15 @@
       </c>
       <c r="J9" s="5">
         <f>B9+(C9+H9+E9)/1000*io_1!$J$1+(D9+F9*2+G9*2)/1000*io_1!$J$2</f>
-        <v>198.64856210500002</v>
+        <v>199.18660617100002</v>
       </c>
       <c r="K9" s="5">
         <f t="shared" ref="K9:K30" si="0">$J$4-J9</f>
-        <v>5.7593070654999963</v>
+        <v>5.2212629994999986</v>
       </c>
       <c r="L9" s="5">
         <f>K9/io_1!$J$2*1000</f>
-        <v>34.916953526369689</v>
+        <v>31.654953526369706</v>
       </c>
       <c r="M9" t="str">
         <f t="shared" ref="M9:M30" si="1">IF(J9=$R$8, "Route","")</f>
@@ -14564,7 +14573,7 @@
       </c>
       <c r="S9">
         <f t="shared" ref="S9:S30" si="3">IF(D9=0,"",J9)</f>
-        <v>198.64856210500002</v>
+        <v>199.18660617100002</v>
       </c>
       <c r="T9">
         <f>MAX(S8:S30)</f>
@@ -14628,7 +14637,7 @@
         <v>22.271000000000001</v>
       </c>
       <c r="D11">
-        <v>888.46100000000001</v>
+        <v>874.06399999999996</v>
       </c>
       <c r="F11">
         <v>9.0549999999999997</v>
@@ -14638,15 +14647,15 @@
       </c>
       <c r="J11" s="5">
         <f>B11+(C11+H11+E11)/1000*io_1!$J$1+(D11+F11*2+G11*2)/1000*io_1!$J$2</f>
-        <v>199.97564916700003</v>
+        <v>197.60096479600003</v>
       </c>
       <c r="K11" s="5">
         <f t="shared" si="0"/>
-        <v>4.4322200034999923</v>
+        <v>6.8069043744999931</v>
       </c>
       <c r="L11" s="5">
         <f>K11/io_1!$J$2*1000</f>
-        <v>26.871222201002723</v>
+        <v>41.268222201002729</v>
       </c>
       <c r="M11" t="str">
         <f t="shared" si="1"/>
@@ -14658,7 +14667,7 @@
       </c>
       <c r="S11">
         <f t="shared" si="3"/>
-        <v>199.97564916700003</v>
+        <v>197.60096479600003</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.3">
@@ -15450,7 +15459,7 @@
         <v>22.271000000000001</v>
       </c>
       <c r="D29">
-        <v>876.69799999999998</v>
+        <v>860.55399999999997</v>
       </c>
       <c r="F29">
         <v>24.315000000000001</v>
@@ -15460,15 +15469,15 @@
       </c>
       <c r="J29" s="5">
         <f>B29+(C29+H29+E29)/1000*io_1!$J$1+(D29+F29*2+G29*2)/1000*io_1!$J$2</f>
-        <v>209.08548501799999</v>
+        <v>206.42264522600001</v>
       </c>
       <c r="K29" s="5">
         <f t="shared" si="0"/>
-        <v>-4.6776158474999647</v>
+        <v>-2.0147760554999934</v>
       </c>
       <c r="L29" s="5">
         <f>K29/io_1!$J$2*1000</f>
-        <v>-28.35898369436693</v>
+        <v>-12.214983694367104</v>
       </c>
       <c r="M29" t="str">
         <f t="shared" si="1"/>
@@ -15480,7 +15489,7 @@
       </c>
       <c r="S29">
         <f t="shared" si="3"/>
-        <v>209.08548501799999</v>
+        <v>206.42264522600001</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.3">
@@ -15495,7 +15504,7 @@
         <v>22.271000000000001</v>
       </c>
       <c r="D30">
-        <v>625.52</v>
+        <v>652.404</v>
       </c>
       <c r="F30">
         <v>24.315000000000001</v>
@@ -15505,15 +15514,15 @@
       </c>
       <c r="J30" s="5">
         <f>B30+(C30+H30+E30)/1000*io_1!$J$1+(D30+F30*2+G30*2)/1000*io_1!$J$2</f>
-        <v>200.01743216400001</v>
+        <v>204.45175977600002</v>
       </c>
       <c r="K30" s="5">
         <f t="shared" si="0"/>
-        <v>4.390437006500008</v>
+        <v>-4.3890605499996127E-2</v>
       </c>
       <c r="L30" s="5">
         <f>K30/io_1!$J$2*1000</f>
-        <v>26.617904406370734</v>
+        <v>-0.26609559362929086</v>
       </c>
       <c r="M30" t="str">
         <f t="shared" si="1"/>
@@ -15525,7 +15534,7 @@
       </c>
       <c r="S30">
         <f t="shared" si="3"/>
-        <v>200.01743216400001</v>
+        <v>204.45175977600002</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.3">
@@ -16830,10 +16839,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O7"/>
+  <dimension ref="A1:O14"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16890,17 +16899,17 @@
         <v>22.271000000000001</v>
       </c>
       <c r="D2">
-        <v>1202.3019999999999</v>
+        <v>3216.2840000000001</v>
       </c>
       <c r="F2" s="14">
         <v>27.895</v>
       </c>
       <c r="H2">
-        <v>45.079000000000001</v>
+        <v>54.994999999999997</v>
       </c>
       <c r="J2" s="5">
         <f>B2+(C2+H2+E2)/1000*io_1!$J$1+(D2+F2*2+G2*2)/1000*io_1!$J$2</f>
-        <v>317.81425120599999</v>
+        <v>651.47669980399996</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>1049</v>
@@ -16922,25 +16931,25 @@
         <v>22.271000000000001</v>
       </c>
       <c r="D3">
-        <v>1189.1400000000001</v>
+        <v>2890.0239999999999</v>
       </c>
       <c r="F3" s="14">
         <v>27.895</v>
       </c>
       <c r="H3">
-        <v>32.087000000000003</v>
+        <v>58.192999999999998</v>
       </c>
       <c r="J3" s="5">
         <f>B3+(C3+H3+E3)/1000*io_1!$J$1+(D3+F3*2+G3*2)/1000*io_1!$J$2</f>
-        <v>342.59398657600002</v>
+        <v>627.01355449000005</v>
       </c>
       <c r="K3" s="5">
         <f>$J$2-J3</f>
-        <v>-24.779735370000026</v>
+        <v>24.463145313999917</v>
       </c>
       <c r="L3" s="5">
         <f>K3/io_1!$J$2*1000</f>
-        <v>-150.23211272985228</v>
+        <v>148.31272205549746</v>
       </c>
       <c r="N3" s="8"/>
       <c r="O3" s="5"/>
@@ -16956,7 +16965,7 @@
         <v>22.271000000000001</v>
       </c>
       <c r="D4">
-        <v>1126.1479999999999</v>
+        <v>2819.9490000000001</v>
       </c>
       <c r="F4" s="14">
         <v>27.895</v>
@@ -16966,15 +16975,15 @@
       </c>
       <c r="J4" s="5">
         <f>B4+(C4+H4+E4)/1000*io_1!$J$1+(D4+F4*2+G4*2)/1000*io_1!$J$2</f>
-        <v>343.69328550699998</v>
+        <v>623.07390385000008</v>
       </c>
       <c r="K4" s="5">
         <f t="shared" ref="K4:K6" si="0">$J$2-J4</f>
-        <v>-25.87903430099999</v>
+        <v>28.402795953999885</v>
       </c>
       <c r="L4" s="5">
         <f>K4/io_1!$J$2*1000</f>
-        <v>-156.89683285134859</v>
+        <v>172.19764375572097</v>
       </c>
       <c r="N4" s="8"/>
     </row>
@@ -16989,25 +16998,25 @@
         <v>22.271000000000001</v>
       </c>
       <c r="D5">
-        <v>1186.5540000000001</v>
+        <v>3296.047</v>
       </c>
       <c r="F5" s="14">
         <v>27.895</v>
       </c>
       <c r="H5">
-        <v>26.725000000000001</v>
+        <v>34.484999999999999</v>
       </c>
       <c r="J5" s="5">
         <f>B5+(C5+H5+E5)/1000*io_1!$J$1+(D5+F5*2+G5*2)/1000*io_1!$J$2</f>
-        <v>288.44043632400002</v>
+        <v>637.53709214300011</v>
       </c>
       <c r="K5" s="5">
         <f t="shared" si="0"/>
-        <v>29.373814881999976</v>
+        <v>13.939607660999854</v>
       </c>
       <c r="L5" s="5">
         <f>K5/io_1!$J$2*1000</f>
-        <v>178.08464064555619</v>
+        <v>84.511665611755902</v>
       </c>
       <c r="N5" s="8"/>
     </row>
@@ -17022,25 +17031,25 @@
         <v>22.271000000000001</v>
       </c>
       <c r="D6">
-        <v>1165.402</v>
+        <v>3160.1619999999998</v>
       </c>
       <c r="F6" s="14">
         <v>27.895</v>
       </c>
       <c r="H6">
-        <v>30.905000000000001</v>
+        <v>32.853999999999999</v>
       </c>
       <c r="J6" s="5">
         <f>B6+(C6+H6+E6)/1000*io_1!$J$1+(D6+F6*2+G6*2)/1000*io_1!$J$2</f>
-        <v>305.48631804800004</v>
+        <v>634.79698911100002</v>
       </c>
       <c r="K6" s="5">
         <f t="shared" si="0"/>
-        <v>12.327933157999951</v>
+        <v>16.679710692999947</v>
       </c>
       <c r="L6" s="5">
         <f>K6/io_1!$J$2*1000</f>
-        <v>74.740565880334117</v>
+        <v>101.12408949152099</v>
       </c>
       <c r="N6" s="8"/>
     </row>
@@ -17055,27 +17064,58 @@
         <v>22.271000000000001</v>
       </c>
       <c r="D7">
-        <v>1105.2280000000001</v>
+        <v>3087.9450000000002</v>
       </c>
       <c r="F7" s="14">
-        <v>9.0549999999999997</v>
+        <v>27.895</v>
       </c>
       <c r="H7">
-        <v>29.788</v>
+        <v>37.070999999999998</v>
       </c>
       <c r="J7" s="5">
         <f>B7+(C7+H7+E7)/1000*io_1!$J$1+(D7+F7*2+G7*2)/1000*io_1!$J$2</f>
-        <v>306.14037148699998</v>
+        <v>640.47054241900003</v>
       </c>
       <c r="K7" s="5">
         <f>$J$2-J7</f>
-        <v>11.673879719000013</v>
+        <v>11.006157384999938</v>
       </c>
       <c r="L7" s="5">
         <f>K7/io_1!$J$2*1000</f>
-        <v>70.77523580267129</v>
+        <v>66.727035309167036</v>
       </c>
       <c r="N7" s="8"/>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1088</v>
+      </c>
+      <c r="C13" t="s">
+        <v>173</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>148.267</v>
+      </c>
+      <c r="B14">
+        <f>A14/1000</f>
+        <v>0.14826699999999998</v>
+      </c>
+      <c r="C14">
+        <f>1.3/2*1000</f>
+        <v>650</v>
+      </c>
+      <c r="D14">
+        <f>C14/B14</f>
+        <v>4383.9829496786206</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="K2:K7">
@@ -17101,7 +17141,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>

--- a/DDR3 board timings.xlsx
+++ b/DDR3 board timings.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16548" windowHeight="6036" activeTab="2"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="16548" windowHeight="6036" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Pin delays - All" sheetId="4" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1631" uniqueCount="1090">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1630" uniqueCount="1089">
   <si>
     <t>#Top: ios   Floorplan: io_1   Part: xc7z020clg484-1</t>
   </si>
@@ -3283,9 +3283,6 @@
   </si>
   <si>
     <t>Total</t>
-  </si>
-  <si>
-    <t>NEEDS UPDATE ON GB_* LINES</t>
   </si>
   <si>
     <t>ps/inch</t>
@@ -14227,8 +14224,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView topLeftCell="A36" workbookViewId="0">
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14312,7 +14309,7 @@
         <v>22.271000000000001</v>
       </c>
       <c r="D2">
-        <v>772.19399999999996</v>
+        <v>767.58100000000002</v>
       </c>
       <c r="F2">
         <v>24.315000000000001</v>
@@ -14322,7 +14319,7 @@
       </c>
       <c r="J2" s="5">
         <f>B2+(C2+H2)/1000*io_1!$J$1+(D2+F2*2+G2*2)/1000*io_1!$J$2</f>
-        <v>204.52178174599999</v>
+        <v>203.76089968700001</v>
       </c>
       <c r="K2" s="5"/>
       <c r="L2" s="9" t="s">
@@ -14357,7 +14354,7 @@
         <v>22.271000000000001</v>
       </c>
       <c r="D3">
-        <v>788.33699999999999</v>
+        <v>786.98599999999999</v>
       </c>
       <c r="F3">
         <v>24.315000000000001</v>
@@ -14367,7 +14364,7 @@
       </c>
       <c r="J3" s="5">
         <f>B3+(C3+H3)/1000*io_1!$J$1+(D3+F3*2+G3*2)/1000*io_1!$J$2</f>
-        <v>204.29395659500003</v>
+        <v>204.07111860200001</v>
       </c>
       <c r="K3" s="5"/>
       <c r="L3" s="5"/>
@@ -14381,14 +14378,14 @@
       </c>
       <c r="C4" s="11">
         <f>MAX(J2:J3)-MIN(J2:J3)</f>
-        <v>0.22782515099996203</v>
+        <v>0.3102189150000072</v>
       </c>
       <c r="I4" s="6" t="s">
         <v>179</v>
       </c>
       <c r="J4" s="9">
         <f>AVERAGE(J2:J3)</f>
-        <v>204.40786917050002</v>
+        <v>203.91600914450001</v>
       </c>
       <c r="K4" s="9"/>
       <c r="L4" s="9"/>
@@ -14490,11 +14487,11 @@
       </c>
       <c r="K8" s="5">
         <f>$J$4-J8</f>
-        <v>-5.2119013004999601</v>
+        <v>-5.703761326499972</v>
       </c>
       <c r="L8" s="5">
         <f>K8/io_1!$J$2*1000</f>
-        <v>-31.598196349647818</v>
+        <v>-34.580196349647885</v>
       </c>
       <c r="M8" t="str">
         <f>IF(J8=$R$8, "Route","")</f>
@@ -14550,11 +14547,11 @@
       </c>
       <c r="K9" s="5">
         <f t="shared" ref="K9:K30" si="0">$J$4-J9</f>
-        <v>5.2212629994999986</v>
+        <v>4.7294029734999867</v>
       </c>
       <c r="L9" s="5">
         <f>K9/io_1!$J$2*1000</f>
-        <v>31.654953526369706</v>
+        <v>28.672953526369632</v>
       </c>
       <c r="M9" t="str">
         <f t="shared" ref="M9:M30" si="1">IF(J9=$R$8, "Route","")</f>
@@ -14606,11 +14603,11 @@
       </c>
       <c r="K10" s="5">
         <f t="shared" si="0"/>
-        <v>-6.2709488544999772</v>
+        <v>-6.7628088804999891</v>
       </c>
       <c r="L10" s="5">
         <f>K10/io_1!$J$2*1000</f>
-        <v>-38.018884429772569</v>
+        <v>-41.00088442977264</v>
       </c>
       <c r="M10" t="str">
         <f t="shared" si="1"/>
@@ -14637,7 +14634,7 @@
         <v>22.271000000000001</v>
       </c>
       <c r="D11">
-        <v>874.06399999999996</v>
+        <v>877.32600000000002</v>
       </c>
       <c r="F11">
         <v>9.0549999999999997</v>
@@ -14647,15 +14644,15 @@
       </c>
       <c r="J11" s="5">
         <f>B11+(C11+H11+E11)/1000*io_1!$J$1+(D11+F11*2+G11*2)/1000*io_1!$J$2</f>
-        <v>197.60096479600003</v>
+        <v>198.13900886200003</v>
       </c>
       <c r="K11" s="5">
         <f t="shared" si="0"/>
-        <v>6.8069043744999931</v>
+        <v>5.7770002824999835</v>
       </c>
       <c r="L11" s="5">
         <f>K11/io_1!$J$2*1000</f>
-        <v>41.268222201002729</v>
+        <v>35.024222201002665</v>
       </c>
       <c r="M11" t="str">
         <f t="shared" si="1"/>
@@ -14667,7 +14664,7 @@
       </c>
       <c r="S11">
         <f t="shared" si="3"/>
-        <v>197.60096479600003</v>
+        <v>198.13900886200003</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.3">
@@ -14702,11 +14699,11 @@
       </c>
       <c r="K12" s="5">
         <f t="shared" si="0"/>
-        <v>4.1312060355000142</v>
+        <v>3.6393460095000023</v>
       </c>
       <c r="L12" s="5">
         <f>K12/io_1!$J$2*1000</f>
-        <v>25.046264682344894</v>
+        <v>22.064264682344824</v>
       </c>
       <c r="M12" t="str">
         <f t="shared" si="1"/>
@@ -14747,11 +14744,11 @@
       </c>
       <c r="K13" s="5">
         <f t="shared" si="0"/>
-        <v>-0.19707006149999984</v>
+        <v>-0.68893008750001172</v>
       </c>
       <c r="L13" s="5">
         <f>K13/io_1!$J$2*1000</f>
-        <v>-1.1947767501500508</v>
+        <v>-4.1767767501501227</v>
       </c>
       <c r="M13" t="str">
         <f t="shared" si="1"/>
@@ -14792,11 +14789,11 @@
       </c>
       <c r="K14" s="5">
         <f t="shared" si="0"/>
-        <v>7.5130887454999993</v>
+        <v>7.0212287194999874</v>
       </c>
       <c r="L14" s="5">
         <f>K14/io_1!$J$2*1000</f>
-        <v>45.549606503458762</v>
+        <v>42.567606503458691</v>
       </c>
       <c r="M14" t="str">
         <f t="shared" si="1"/>
@@ -14823,7 +14820,7 @@
         <v>22.271000000000001</v>
       </c>
       <c r="D15">
-        <v>860.48599999999999</v>
+        <v>845.89099999999996</v>
       </c>
       <c r="F15">
         <v>12.635</v>
@@ -14833,15 +14830,15 @@
       </c>
       <c r="J15" s="5">
         <f>B15+(C15+H15+E15)/1000*io_1!$J$1+(D15+F15*2+G15*2)/1000*io_1!$J$2</f>
-        <v>203.249860622</v>
+        <v>200.84251753699999</v>
       </c>
       <c r="K15" s="5">
         <f t="shared" si="0"/>
-        <v>1.1580085485000211</v>
+        <v>3.0734916075000172</v>
       </c>
       <c r="L15" s="5">
         <f>K15/io_1!$J$2*1000</f>
-        <v>7.0206589458177735</v>
+        <v>18.633658945817746</v>
       </c>
       <c r="M15" t="str">
         <f t="shared" si="1"/>
@@ -14853,7 +14850,7 @@
       </c>
       <c r="S15">
         <f t="shared" si="3"/>
-        <v>203.249860622</v>
+        <v>200.84251753699999</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.3">
@@ -14882,11 +14879,11 @@
       </c>
       <c r="K16" s="5">
         <f t="shared" si="0"/>
-        <v>6.7056476635000308</v>
+        <v>6.2137876375000189</v>
       </c>
       <c r="L16" s="5">
         <f>K16/io_1!$J$2*1000</f>
-        <v>40.654333093856849</v>
+        <v>37.672333093856778</v>
       </c>
       <c r="M16" t="str">
         <f t="shared" si="1"/>
@@ -14933,11 +14930,11 @@
       </c>
       <c r="K17" s="5">
         <f t="shared" si="0"/>
-        <v>0.12722212049999371</v>
+        <v>-0.36463790550001818</v>
       </c>
       <c r="L17" s="5">
         <f>K17/io_1!$J$2*1000</f>
-        <v>0.77130960695509176</v>
+        <v>-2.2106903930449802</v>
       </c>
       <c r="M17" t="str">
         <f t="shared" si="1"/>
@@ -14978,11 +14975,11 @@
       </c>
       <c r="K18" s="5">
         <f t="shared" si="0"/>
-        <v>2.2357547585000361</v>
+        <v>1.7438947325000242</v>
       </c>
       <c r="L18" s="5">
         <f>K18/io_1!$J$2*1000</f>
-        <v>13.554711376051339</v>
+        <v>10.572711376051267</v>
       </c>
       <c r="M18" t="str">
         <f t="shared" si="1"/>
@@ -15023,11 +15020,11 @@
       </c>
       <c r="K19" s="5">
         <f t="shared" si="0"/>
-        <v>8.0298281055000302</v>
+        <v>7.5379680795000183</v>
       </c>
       <c r="L19" s="5">
         <f>K19/io_1!$J$2*1000</f>
-        <v>48.682442452847532</v>
+        <v>45.700442452847454</v>
       </c>
       <c r="M19" t="str">
         <f t="shared" si="1"/>
@@ -15068,11 +15065,11 @@
       </c>
       <c r="K20" s="5">
         <f t="shared" si="0"/>
-        <v>-2.1617687424999872</v>
+        <v>-2.6536287684999991</v>
       </c>
       <c r="L20" s="5">
         <f>K20/io_1!$J$2*1000</f>
-        <v>-13.106156323699624</v>
+        <v>-16.088156323699696</v>
       </c>
       <c r="M20" t="str">
         <f t="shared" si="1"/>
@@ -15113,11 +15110,11 @@
       </c>
       <c r="K21" s="5">
         <f t="shared" si="0"/>
-        <v>5.4984093735000101</v>
+        <v>5.0065493474999982</v>
       </c>
       <c r="L21" s="5">
         <f>K21/io_1!$J$2*1000</f>
-        <v>33.335208972190451</v>
+        <v>30.35320897219038</v>
       </c>
       <c r="M21" t="str">
         <f t="shared" si="1"/>
@@ -15158,11 +15155,11 @@
       </c>
       <c r="K22" s="5">
         <f t="shared" si="0"/>
-        <v>2.8151231705000157</v>
+        <v>2.3232631445000038</v>
       </c>
       <c r="L22" s="5">
         <f>K22/io_1!$J$2*1000</f>
-        <v>17.067248507060111</v>
+        <v>14.085248507060037</v>
       </c>
       <c r="M22" t="str">
         <f t="shared" si="1"/>
@@ -15203,11 +15200,11 @@
       </c>
       <c r="K23" s="5">
         <f t="shared" si="0"/>
-        <v>8.0732258655000351</v>
+        <v>7.5813658395000232</v>
       </c>
       <c r="L23" s="5">
         <f>K23/io_1!$J$2*1000</f>
-        <v>48.945550071843208</v>
+        <v>45.963550071843137</v>
       </c>
       <c r="M23" t="str">
         <f t="shared" si="1"/>
@@ -15248,11 +15245,11 @@
       </c>
       <c r="K24" s="5">
         <f t="shared" si="0"/>
-        <v>-0.66094212249996076</v>
+        <v>-1.1528021484999726</v>
       </c>
       <c r="L24" s="5">
         <f>K24/io_1!$J$2*1000</f>
-        <v>-4.0070941022047659</v>
+        <v>-6.9890941022048381</v>
       </c>
       <c r="M24" t="str">
         <f t="shared" si="1"/>
@@ -15293,11 +15290,11 @@
       </c>
       <c r="K25" s="5">
         <f t="shared" si="0"/>
-        <v>-3.5653000964999819</v>
+        <v>-4.0571601224999938</v>
       </c>
       <c r="L25" s="5">
         <f>K25/io_1!$J$2*1000</f>
-        <v>-21.615346492424546</v>
+        <v>-24.597346492424617</v>
       </c>
       <c r="M25" t="str">
         <f t="shared" si="1"/>
@@ -15338,11 +15335,11 @@
       </c>
       <c r="K26" s="5">
         <f t="shared" si="0"/>
-        <v>7.307619665499999</v>
+        <v>6.8157596394999871</v>
       </c>
       <c r="L26" s="5">
         <f>K26/io_1!$J$2*1000</f>
-        <v>44.303909020085719</v>
+        <v>41.321909020085648</v>
       </c>
       <c r="M26" t="str">
         <f t="shared" si="1"/>
@@ -15383,11 +15380,11 @@
       </c>
       <c r="K27" s="5">
         <f t="shared" si="0"/>
-        <v>3.7454428584999846</v>
+        <v>3.2535828324999727</v>
       </c>
       <c r="L27" s="5">
         <f>K27/io_1!$J$2*1000</f>
-        <v>22.707498096311966</v>
+        <v>19.725498096311892</v>
       </c>
       <c r="M27" t="str">
         <f t="shared" si="1"/>
@@ -15428,11 +15425,11 @@
       </c>
       <c r="K28" s="5">
         <f t="shared" si="0"/>
-        <v>-8.0211171215000263</v>
+        <v>-8.5129771475000382</v>
       </c>
       <c r="L28" s="5">
         <f>K28/io_1!$J$2*1000</f>
-        <v>-48.629630366247895</v>
+        <v>-51.611630366247958</v>
       </c>
       <c r="M28" t="str">
         <f t="shared" si="1"/>
@@ -15473,11 +15470,11 @@
       </c>
       <c r="K29" s="5">
         <f t="shared" si="0"/>
-        <v>-2.0147760554999934</v>
+        <v>-2.5066360815000053</v>
       </c>
       <c r="L29" s="5">
         <f>K29/io_1!$J$2*1000</f>
-        <v>-12.214983694367104</v>
+        <v>-15.196983694367175</v>
       </c>
       <c r="M29" t="str">
         <f t="shared" si="1"/>
@@ -15518,11 +15515,11 @@
       </c>
       <c r="K30" s="5">
         <f t="shared" si="0"/>
-        <v>-4.3890605499996127E-2</v>
+        <v>-0.53575063150000801</v>
       </c>
       <c r="L30" s="5">
         <f>K30/io_1!$J$2*1000</f>
-        <v>-0.26609559362929086</v>
+        <v>-3.2480955936293627</v>
       </c>
       <c r="M30" t="str">
         <f t="shared" si="1"/>
@@ -15647,7 +15644,7 @@
       </c>
       <c r="O36" s="5">
         <f>MIN(J36:J46)</f>
-        <v>168.92994562700002</v>
+        <v>168.37755617400001</v>
       </c>
       <c r="Q36">
         <f>IF(D36=0,J36,0)</f>
@@ -15663,7 +15660,7 @@
       </c>
       <c r="T36">
         <f>MIN(S36:S46)</f>
-        <v>168.92994562700002</v>
+        <v>168.37755617400001</v>
       </c>
     </row>
     <row r="37" spans="1:20" x14ac:dyDescent="0.3">
@@ -16004,7 +16001,7 @@
         <v>22.271000000000001</v>
       </c>
       <c r="D44">
-        <v>576.202</v>
+        <v>571.59</v>
       </c>
       <c r="F44">
         <v>24.315000000000001</v>
@@ -16014,15 +16011,15 @@
       </c>
       <c r="J44" s="5">
         <f>B44+(C44+H44+E44)/1000*io_1!$J$1+(D44+F44*2+G44*2)/1000*io_1!$J$2</f>
-        <v>169.13827329</v>
+        <v>168.37755617400001</v>
       </c>
       <c r="K44" s="5">
         <f t="shared" si="4"/>
-        <v>5.3792471490000082</v>
+        <v>6.1399642650000033</v>
       </c>
       <c r="L44" s="5">
         <f>K44/io_1!$J$2*1000</f>
-        <v>32.612764100325613</v>
+        <v>37.224764100325579</v>
       </c>
       <c r="M44" t="str">
         <f t="shared" si="5"/>
@@ -16034,7 +16031,7 @@
       </c>
       <c r="S44">
         <f t="shared" si="7"/>
-        <v>169.13827329</v>
+        <v>168.37755617400001</v>
       </c>
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.3">
@@ -16133,7 +16130,7 @@
       </c>
       <c r="C47" s="9">
         <f>MAX(J36:J46)-MIN(J36:J46)</f>
-        <v>12.41914509099999</v>
+        <v>12.971534544000008</v>
       </c>
       <c r="E47" s="6" t="s">
         <v>185</v>
@@ -16149,7 +16146,7 @@
       </c>
       <c r="C48" s="6">
         <f>T37-T36</f>
-        <v>12.41914509099999</v>
+        <v>12.971534544000008</v>
       </c>
       <c r="E48" s="6" t="s">
         <v>186</v>
@@ -17088,16 +17085,16 @@
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B13" t="s">
         <v>1087</v>
-      </c>
-      <c r="B13" t="s">
-        <v>1088</v>
       </c>
       <c r="C13" t="s">
         <v>173</v>
       </c>
       <c r="D13" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
@@ -17663,10 +17660,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O22"/>
+  <dimension ref="A1:Q18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17674,7 +17671,7 @@
     <col min="1" max="1" width="16.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>157</v>
       </c>
@@ -17713,7 +17710,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>1067</v>
       </c>
@@ -17739,7 +17736,7 @@
       <c r="M2" s="8"/>
       <c r="N2" s="5"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1069</v>
       </c>
@@ -17772,7 +17769,7 @@
       </c>
       <c r="N3" s="5"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>1070</v>
       </c>
@@ -17791,7 +17788,7 @@
       </c>
       <c r="M4" s="8"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>1068</v>
       </c>
@@ -17817,7 +17814,7 @@
         <v>39.808928713</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>1071</v>
       </c>
@@ -17836,7 +17833,7 @@
       </c>
       <c r="M6" s="8"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>1072</v>
       </c>
@@ -17862,7 +17859,7 @@
         <v>48.673219574999997</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>1073</v>
       </c>
@@ -17880,7 +17877,7 @@
         <v>69.773985947000014</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>1074</v>
       </c>
@@ -17906,12 +17903,12 @@
         <v>67.681123108500003</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>1078</v>
       </c>
       <c r="B11">
-        <v>1551.7239999999999</v>
+        <v>1558.643</v>
       </c>
       <c r="E11" s="14">
         <v>36.950000000000003</v>
@@ -17921,19 +17918,19 @@
       </c>
       <c r="K11" s="5">
         <f>(B11+I11+D11)/1000*io_1!$J$1+(C11+E11+F11+G11+H11)/1000*io_1!$J$2</f>
-        <v>249.74818043099998</v>
+        <v>250.77403980399998</v>
       </c>
       <c r="M11" s="8"/>
       <c r="O11" t="s">
         <v>1085</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>1077</v>
       </c>
       <c r="B12">
-        <v>1563.9280000000001</v>
+        <v>1570.846</v>
       </c>
       <c r="E12" s="14">
         <v>36.950000000000003</v>
@@ -17943,27 +17940,28 @@
       </c>
       <c r="K12" s="5">
         <f>(B12+I12+D12)/1000*io_1!$J$1+(C12+E12+F12+G12+H12)/1000*io_1!$J$2</f>
-        <v>248.99765287700001</v>
+        <v>250.02336398300002</v>
       </c>
       <c r="L12">
         <f>ABS(K11-K12)</f>
-        <v>0.75052755399997295</v>
+        <v>0.75067582099995889</v>
       </c>
       <c r="M12" s="15">
         <f>AVERAGE(K11:K12)</f>
-        <v>249.37291665399999</v>
+        <v>250.3987018935</v>
       </c>
       <c r="O12" s="5">
         <f>M3+M12</f>
-        <v>331.02456432450003</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+        <v>332.05034956400004</v>
+      </c>
+      <c r="Q12" s="5"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>1079</v>
       </c>
       <c r="B13">
-        <v>1801.173</v>
+        <v>1794.65</v>
       </c>
       <c r="E13" s="14">
         <v>36.950000000000003</v>
@@ -17973,16 +17971,16 @@
       </c>
       <c r="K13" s="5">
         <f>(B13+I13+D13)/1000*io_1!$J$1+(C13+E13+F13+G13+H13)/1000*io_1!$J$2</f>
-        <v>286.97505879099998</v>
+        <v>286.00791315000004</v>
       </c>
       <c r="M13" s="8"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>1080</v>
       </c>
       <c r="B14">
-        <v>1803.741</v>
+        <v>1808.4659999999999</v>
       </c>
       <c r="E14" s="14">
         <v>36.950000000000003</v>
@@ -17992,30 +17990,30 @@
       </c>
       <c r="K14" s="5">
         <f>(B14+I14+D14)/1000*io_1!$J$1+(C14+E14+F14+G14+H14)/1000*io_1!$J$2</f>
-        <v>284.31218347100003</v>
+        <v>285.01274504599996</v>
       </c>
       <c r="L14">
         <f>ABS(K13-K14)</f>
-        <v>2.6628753199999551</v>
+        <v>0.99516810400007216</v>
       </c>
       <c r="M14" s="15">
         <f>AVERAGE(K13:K14)</f>
-        <v>285.64362113100003</v>
+        <v>285.510329098</v>
       </c>
       <c r="O14" s="5">
         <f>M5+M14</f>
-        <v>325.45254984400003</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+        <v>325.319257811</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>1081</v>
       </c>
       <c r="B15">
-        <v>90.887</v>
+        <v>123.958</v>
       </c>
       <c r="C15">
-        <v>1564.1790000000001</v>
+        <v>1529.961</v>
       </c>
       <c r="E15" s="14">
         <v>27.895</v>
@@ -18028,19 +18026,19 @@
       </c>
       <c r="K15" s="5">
         <f>(B15+I15+D15)/1000*io_1!$J$1+(C15+E15+F15+G15+H15)/1000*io_1!$J$2</f>
-        <v>291.41306713</v>
+        <v>290.67238551300005</v>
       </c>
       <c r="M15" s="8"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>1082</v>
       </c>
       <c r="B16">
-        <v>90.887</v>
+        <v>123.958</v>
       </c>
       <c r="C16">
-        <v>1576.954</v>
+        <v>1544.3579999999999</v>
       </c>
       <c r="E16" s="14">
         <v>27.895</v>
@@ -18053,19 +18051,19 @@
       </c>
       <c r="K16" s="5">
         <f>(B16+I16+D16)/1000*io_1!$J$1+(C16+E16+F16+G16+H16)/1000*io_1!$J$2</f>
-        <v>290.45998307500003</v>
+        <v>289.98683900399999</v>
       </c>
       <c r="L16">
         <f>ABS(K15-K16)</f>
-        <v>0.95308405499997662</v>
+        <v>0.68554650900006209</v>
       </c>
       <c r="M16" s="15">
         <f>AVERAGE(K15:K16)</f>
-        <v>290.93652510250001</v>
+        <v>290.32961225849999</v>
       </c>
       <c r="O16" s="5">
         <f>M7+M16</f>
-        <v>339.60974467750003</v>
+        <v>339.00283183350001</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.3">
@@ -18097,10 +18095,10 @@
         <v>1084</v>
       </c>
       <c r="B18">
-        <v>90.887</v>
+        <v>123.958</v>
       </c>
       <c r="C18">
-        <v>1624.731</v>
+        <v>1591.6020000000001</v>
       </c>
       <c r="E18" s="14">
         <v>27.895</v>
@@ -18113,24 +18111,19 @@
       </c>
       <c r="K18" s="5">
         <f>(B18+I18+D18)/1000*io_1!$J$1+(C18+E18+F18+G18+H18)/1000*io_1!$J$2</f>
-        <v>298.34046478599998</v>
+        <v>297.77940609600006</v>
       </c>
       <c r="L18">
         <f>ABS(K17-K18)</f>
-        <v>0.8651694360000306</v>
+        <v>1.4262281259999554</v>
       </c>
       <c r="M18" s="15">
         <f>AVERAGE(K17:K18)</f>
-        <v>298.77304950400003</v>
+        <v>298.49252015900004</v>
       </c>
       <c r="O18" s="5">
         <f>M9+M18</f>
-        <v>366.45417261250003</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="B22" t="s">
-        <v>1086</v>
+        <v>366.17364326750004</v>
       </c>
     </row>
   </sheetData>

--- a/DDR3 board timings.xlsx
+++ b/DDR3 board timings.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="16548" windowHeight="6036" activeTab="5"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="16548" windowHeight="6036" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Pin delays - All" sheetId="4" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1630" uniqueCount="1089">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1638" uniqueCount="1093">
   <si>
     <t>#Top: ios   Floorplan: io_1   Part: xc7z020clg484-1</t>
   </si>
@@ -3292,6 +3292,18 @@
   </si>
   <si>
     <t>mil</t>
+  </si>
+  <si>
+    <t>Average data propagation:</t>
+  </si>
+  <si>
+    <t>Midrange of DQ and DM:</t>
+  </si>
+  <si>
+    <t>Midrange average with DDR clock:</t>
+  </si>
+  <si>
+    <t>Difference from DDR clock:</t>
   </si>
 </sst>
 </file>
@@ -4435,7 +4447,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AR405"/>
   <sheetViews>
-    <sheetView topLeftCell="A195" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G209" sqref="G209"/>
     </sheetView>
   </sheetViews>
@@ -12953,8 +12965,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J53"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J1" sqref="J1"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14222,10 +14234,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T64"/>
+  <dimension ref="A1:T65"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="E67" sqref="E67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14403,9 +14415,6 @@
       <c r="L5" s="5"/>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="G6">
-        <v>219.85499999999999</v>
-      </c>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
@@ -16139,6 +16148,13 @@
         <f>MAX(J41:J42)-MIN(J41:J42)</f>
         <v>0.36356349400000454</v>
       </c>
+      <c r="H47" s="6" t="s">
+        <v>1090</v>
+      </c>
+      <c r="J47" s="5">
+        <f>(MAX(J36:J40,J43:J46)+MIN(J36:J40,J43:J46))/2</f>
+        <v>174.86332344600001</v>
+      </c>
     </row>
     <row r="48" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B48" s="6" t="s">
@@ -16155,6 +16171,30 @@
         <f>AVERAGE(J41:J42)</f>
         <v>174.51752043900001</v>
       </c>
+      <c r="H48" s="6" t="s">
+        <v>1089</v>
+      </c>
+      <c r="J48" s="5">
+        <f>AVERAGE(J36:J40,J43:J46)</f>
+        <v>172.59774147344444</v>
+      </c>
+      <c r="K48" s="5"/>
+    </row>
+    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
+      <c r="E49" s="6" t="s">
+        <v>1092</v>
+      </c>
+      <c r="F49" s="5">
+        <f>$J$4-F48</f>
+        <v>29.3984887055</v>
+      </c>
+      <c r="H49" s="6" t="s">
+        <v>1091</v>
+      </c>
+      <c r="K49" s="5">
+        <f>AVERAGE(J47,$J$4)</f>
+        <v>189.38966629525001</v>
+      </c>
     </row>
     <row r="51" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
@@ -16737,6 +16777,13 @@
         <f>MAX(J57:J58)-MIN(J57:J58)</f>
         <v>0.30773881800001845</v>
       </c>
+      <c r="H63" s="6" t="s">
+        <v>1090</v>
+      </c>
+      <c r="J63" s="5">
+        <f>(MAX(J52:J56,J59:J62)+MIN(J52:J56,J59:J62))/2</f>
+        <v>156.7526166175</v>
+      </c>
     </row>
     <row r="64" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B64" s="6" t="s">
@@ -16752,6 +16799,30 @@
       <c r="F64" s="5">
         <f>AVERAGE(J57:J58)</f>
         <v>157.41322902900001</v>
+      </c>
+      <c r="H64" s="6" t="s">
+        <v>1089</v>
+      </c>
+      <c r="J64" s="5">
+        <f>AVERAGE(J52:J56,J59:J62)</f>
+        <v>155.24309455600002</v>
+      </c>
+      <c r="K64" s="5"/>
+    </row>
+    <row r="65" spans="5:11" x14ac:dyDescent="0.3">
+      <c r="E65" s="6" t="s">
+        <v>1092</v>
+      </c>
+      <c r="F65" s="5">
+        <f>$J$4-F64</f>
+        <v>46.502780115500002</v>
+      </c>
+      <c r="H65" s="6" t="s">
+        <v>1091</v>
+      </c>
+      <c r="K65" s="5">
+        <f>AVERAGE(J63,$J$4)</f>
+        <v>180.33431288100002</v>
       </c>
     </row>
   </sheetData>
@@ -17662,7 +17733,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>

--- a/DDR3 board timings.xlsx
+++ b/DDR3 board timings.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CERN\APD\IPMC\Schematic\svn\trunk\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marce\Documents\CERN\APD\IPMC\Schematic\svn\trunk\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE35212F-FDC3-49EF-823C-E0EA26EEDBBA}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="16548" windowHeight="6036" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16545" windowHeight="6038" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pin delays - All" sheetId="4" r:id="rId1"/>
@@ -20,7 +21,7 @@
     <sheet name="Ethernet" sheetId="7" r:id="rId6"/>
     <sheet name="Sheet2" sheetId="3" state="hidden" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="179017" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -3309,7 +3310,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="#,##0.000"/>
@@ -3931,16 +3932,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -3986,6 +3977,16 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -4444,19 +4445,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AR405"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G209" sqref="G209"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="4" max="4" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:44" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>187</v>
       </c>
@@ -4476,7 +4477,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="2" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:44" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>193</v>
       </c>
@@ -4505,7 +4506,7 @@
         <v>2017</v>
       </c>
     </row>
-    <row r="3" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:44" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>199</v>
       </c>
@@ -4543,7 +4544,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="5" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:44" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>206</v>
       </c>
@@ -4677,7 +4678,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="6" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:44" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>0</v>
       </c>
@@ -4701,7 +4702,7 @@
         <v>107.39500000000001</v>
       </c>
     </row>
-    <row r="7" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:44" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>0</v>
       </c>
@@ -4725,7 +4726,7 @@
         <v>117.253</v>
       </c>
     </row>
-    <row r="8" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:44" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>0</v>
       </c>
@@ -4746,7 +4747,7 @@
         <v>30.954000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:44" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>0</v>
       </c>
@@ -4767,7 +4768,7 @@
         <v>106.935</v>
       </c>
     </row>
-    <row r="10" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:44" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>0</v>
       </c>
@@ -4782,7 +4783,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="11" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:44" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>0</v>
       </c>
@@ -4797,7 +4798,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="12" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:44" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>0</v>
       </c>
@@ -4818,7 +4819,7 @@
         <v>88.128500000000003</v>
       </c>
     </row>
-    <row r="13" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:44" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>0</v>
       </c>
@@ -4833,7 +4834,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="14" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:44" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>0</v>
       </c>
@@ -4854,7 +4855,7 @@
         <v>58.165000000000006</v>
       </c>
     </row>
-    <row r="15" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:44" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>0</v>
       </c>
@@ -4875,7 +4876,7 @@
         <v>134.44800000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:44" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:44" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>0</v>
       </c>
@@ -4896,7 +4897,7 @@
         <v>81.800000000000011</v>
       </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>0</v>
       </c>
@@ -4917,7 +4918,7 @@
         <v>70.444999999999993</v>
       </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>0</v>
       </c>
@@ -4938,7 +4939,7 @@
         <v>175.08600000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>0</v>
       </c>
@@ -4959,7 +4960,7 @@
         <v>170.79899999999998</v>
       </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>0</v>
       </c>
@@ -4983,7 +4984,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>0</v>
       </c>
@@ -5004,7 +5005,7 @@
         <v>107.874</v>
       </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>0</v>
       </c>
@@ -5025,7 +5026,7 @@
         <v>127.20599999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>0</v>
       </c>
@@ -5043,7 +5044,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>13</v>
       </c>
@@ -5067,7 +5068,7 @@
         <v>80.39</v>
       </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>13</v>
       </c>
@@ -5091,7 +5092,7 @@
         <v>168.727</v>
       </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>13</v>
       </c>
@@ -5115,7 +5116,7 @@
         <v>161.41199999999998</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>13</v>
       </c>
@@ -5139,7 +5140,7 @@
         <v>100.23400000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>13</v>
       </c>
@@ -5163,7 +5164,7 @@
         <v>102.601</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>13</v>
       </c>
@@ -5187,7 +5188,7 @@
         <v>108.47200000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>13</v>
       </c>
@@ -5211,7 +5212,7 @@
         <v>94.195999999999998</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>13</v>
       </c>
@@ -5235,7 +5236,7 @@
         <v>140.88999999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>13</v>
       </c>
@@ -5259,7 +5260,7 @@
         <v>124.155</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>13</v>
       </c>
@@ -5283,7 +5284,7 @@
         <v>162.33100000000002</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>13</v>
       </c>
@@ -5307,7 +5308,7 @@
         <v>162.49599999999998</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>13</v>
       </c>
@@ -5331,7 +5332,7 @@
         <v>129.161</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>13</v>
       </c>
@@ -5355,7 +5356,7 @@
         <v>111.58699999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>13</v>
       </c>
@@ -5379,7 +5380,7 @@
         <v>135.25799999999998</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>13</v>
       </c>
@@ -5403,7 +5404,7 @@
         <v>114.38300000000001</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>13</v>
       </c>
@@ -5427,7 +5428,7 @@
         <v>125.286</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>13</v>
       </c>
@@ -5451,7 +5452,7 @@
         <v>128.76999999999998</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>13</v>
       </c>
@@ -5475,7 +5476,7 @@
         <v>111.00899999999999</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>13</v>
       </c>
@@ -5499,7 +5500,7 @@
         <v>53.59</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>13</v>
       </c>
@@ -5523,7 +5524,7 @@
         <v>142.51300000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>13</v>
       </c>
@@ -5547,7 +5548,7 @@
         <v>143.858</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>13</v>
       </c>
@@ -5571,7 +5572,7 @@
         <v>102.26599999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>13</v>
       </c>
@@ -5595,7 +5596,7 @@
         <v>100.32900000000001</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>13</v>
       </c>
@@ -5619,7 +5620,7 @@
         <v>61.3035</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>13</v>
       </c>
@@ -5643,7 +5644,7 @@
         <v>66.529499999999999</v>
       </c>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>13</v>
       </c>
@@ -5661,7 +5662,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>13</v>
       </c>
@@ -5679,7 +5680,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>13</v>
       </c>
@@ -5697,7 +5698,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A52">
         <v>13</v>
       </c>
@@ -5715,7 +5716,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A53">
         <v>34</v>
       </c>
@@ -5739,7 +5740,7 @@
         <v>82.363</v>
       </c>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A54">
         <v>34</v>
       </c>
@@ -5763,7 +5764,7 @@
         <v>145.14500000000001</v>
       </c>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A55">
         <v>34</v>
       </c>
@@ -5787,7 +5788,7 @@
         <v>138.643</v>
       </c>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A56">
         <v>34</v>
       </c>
@@ -5811,7 +5812,7 @@
         <v>159.68100000000001</v>
       </c>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A57">
         <v>34</v>
       </c>
@@ -5835,7 +5836,7 @@
         <v>165.98599999999999</v>
       </c>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A58">
         <v>34</v>
       </c>
@@ -5859,7 +5860,7 @@
         <v>164.18</v>
       </c>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A59">
         <v>34</v>
       </c>
@@ -5883,7 +5884,7 @@
         <v>165.40899999999999</v>
       </c>
     </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A60">
         <v>34</v>
       </c>
@@ -5907,7 +5908,7 @@
         <v>141.785</v>
       </c>
     </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A61">
         <v>34</v>
       </c>
@@ -5931,7 +5932,7 @@
         <v>126.89100000000001</v>
       </c>
     </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A62">
         <v>34</v>
       </c>
@@ -5955,7 +5956,7 @@
         <v>124.07499999999999</v>
       </c>
     </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A63">
         <v>34</v>
       </c>
@@ -5979,7 +5980,7 @@
         <v>118.995</v>
       </c>
     </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A64">
         <v>34</v>
       </c>
@@ -6003,7 +6004,7 @@
         <v>98.159000000000006</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A65">
         <v>34</v>
       </c>
@@ -6027,7 +6028,7 @@
         <v>70.750500000000002</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A66">
         <v>34</v>
       </c>
@@ -6051,7 +6052,7 @@
         <v>164.43299999999999</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A67">
         <v>34</v>
       </c>
@@ -6075,7 +6076,7 @@
         <v>162.08799999999999</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A68">
         <v>34</v>
       </c>
@@ -6099,7 +6100,7 @@
         <v>195.27600000000001</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A69">
         <v>34</v>
       </c>
@@ -6123,7 +6124,7 @@
         <v>183.94099999999997</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A70">
         <v>34</v>
       </c>
@@ -6147,7 +6148,7 @@
         <v>125.621</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A71">
         <v>34</v>
       </c>
@@ -6171,7 +6172,7 @@
         <v>143.44900000000001</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A72">
         <v>34</v>
       </c>
@@ -6195,7 +6196,7 @@
         <v>173.29300000000001</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A73">
         <v>34</v>
       </c>
@@ -6219,7 +6220,7 @@
         <v>174.119</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A74">
         <v>34</v>
       </c>
@@ -6243,7 +6244,7 @@
         <v>184.708</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A75">
         <v>34</v>
       </c>
@@ -6267,7 +6268,7 @@
         <v>179.91499999999999</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A76">
         <v>34</v>
       </c>
@@ -6291,7 +6292,7 @@
         <v>94.007000000000005</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A77">
         <v>34</v>
       </c>
@@ -6315,7 +6316,7 @@
         <v>98.834999999999994</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A78">
         <v>34</v>
       </c>
@@ -6339,7 +6340,7 @@
         <v>57.061500000000002</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A79">
         <v>34</v>
       </c>
@@ -6363,7 +6364,7 @@
         <v>71.942499999999995</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A80">
         <v>34</v>
       </c>
@@ -6387,7 +6388,7 @@
         <v>50.451000000000001</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A81">
         <v>34</v>
       </c>
@@ -6411,7 +6412,7 @@
         <v>58.513499999999993</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A82">
         <v>34</v>
       </c>
@@ -6435,7 +6436,7 @@
         <v>80.310500000000005</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A83">
         <v>34</v>
       </c>
@@ -6459,7 +6460,7 @@
         <v>80.971000000000004</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A84">
         <v>34</v>
       </c>
@@ -6483,7 +6484,7 @@
         <v>118.03</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A85">
         <v>34</v>
       </c>
@@ -6507,7 +6508,7 @@
         <v>123.99000000000001</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A86">
         <v>34</v>
       </c>
@@ -6531,7 +6532,7 @@
         <v>120.17</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A87">
         <v>34</v>
       </c>
@@ -6555,7 +6556,7 @@
         <v>114.054</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A88">
         <v>34</v>
       </c>
@@ -6579,7 +6580,7 @@
         <v>93.9375</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A89">
         <v>34</v>
       </c>
@@ -6603,7 +6604,7 @@
         <v>94.331999999999994</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A90">
         <v>34</v>
       </c>
@@ -6627,7 +6628,7 @@
         <v>74.684500000000014</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A91">
         <v>34</v>
       </c>
@@ -6651,7 +6652,7 @@
         <v>69.158000000000001</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A92">
         <v>34</v>
       </c>
@@ -6675,7 +6676,7 @@
         <v>77.634</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A93">
         <v>34</v>
       </c>
@@ -6699,7 +6700,7 @@
         <v>68.231499999999997</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A94">
         <v>34</v>
       </c>
@@ -6723,7 +6724,7 @@
         <v>106.617</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A95">
         <v>34</v>
       </c>
@@ -6747,7 +6748,7 @@
         <v>98.855000000000004</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A96">
         <v>34</v>
       </c>
@@ -6771,7 +6772,7 @@
         <v>86.01400000000001</v>
       </c>
     </row>
-    <row r="97" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A97">
         <v>34</v>
       </c>
@@ -6795,7 +6796,7 @@
         <v>82.453000000000003</v>
       </c>
     </row>
-    <row r="98" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A98">
         <v>34</v>
       </c>
@@ -6819,7 +6820,7 @@
         <v>71.897500000000008</v>
       </c>
     </row>
-    <row r="99" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A99">
         <v>34</v>
       </c>
@@ -6843,7 +6844,7 @@
         <v>56.838999999999999</v>
       </c>
     </row>
-    <row r="100" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A100">
         <v>34</v>
       </c>
@@ -6867,7 +6868,7 @@
         <v>75.432500000000005</v>
       </c>
     </row>
-    <row r="101" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A101">
         <v>34</v>
       </c>
@@ -6891,7 +6892,7 @@
         <v>80.393000000000001</v>
       </c>
     </row>
-    <row r="102" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A102">
         <v>34</v>
       </c>
@@ -6915,7 +6916,7 @@
         <v>82.162000000000006</v>
       </c>
     </row>
-    <row r="103" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A103">
         <v>34</v>
       </c>
@@ -6933,7 +6934,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="104" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A104">
         <v>34</v>
       </c>
@@ -6951,7 +6952,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="105" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A105">
         <v>34</v>
       </c>
@@ -6969,7 +6970,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="106" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A106">
         <v>34</v>
       </c>
@@ -6987,7 +6988,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="107" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A107">
         <v>34</v>
       </c>
@@ -7005,7 +7006,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="108" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A108">
         <v>34</v>
       </c>
@@ -7023,7 +7024,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="109" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A109">
         <v>35</v>
       </c>
@@ -7047,7 +7048,7 @@
         <v>41.383000000000003</v>
       </c>
     </row>
-    <row r="110" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A110">
         <v>35</v>
       </c>
@@ -7071,7 +7072,7 @@
         <v>67.868499999999997</v>
       </c>
     </row>
-    <row r="111" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A111">
         <v>35</v>
       </c>
@@ -7095,7 +7096,7 @@
         <v>65.930999999999997</v>
       </c>
     </row>
-    <row r="112" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A112">
         <v>35</v>
       </c>
@@ -7119,7 +7120,7 @@
         <v>65.004999999999995</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A113">
         <v>35</v>
       </c>
@@ -7143,7 +7144,7 @@
         <v>72.94550000000001</v>
       </c>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A114">
         <v>35</v>
       </c>
@@ -7167,7 +7168,7 @@
         <v>35.822000000000003</v>
       </c>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A115">
         <v>35</v>
       </c>
@@ -7191,7 +7192,7 @@
         <v>31.221499999999999</v>
       </c>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A116">
         <v>35</v>
       </c>
@@ -7215,7 +7216,7 @@
         <v>59.192</v>
       </c>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A117">
         <v>35</v>
       </c>
@@ -7239,7 +7240,7 @@
         <v>59.689499999999995</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A118">
         <v>35</v>
       </c>
@@ -7263,7 +7264,7 @@
         <v>54.088499999999996</v>
       </c>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A119">
         <v>35</v>
       </c>
@@ -7287,7 +7288,7 @@
         <v>63.272000000000006</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A120">
         <v>35</v>
       </c>
@@ -7311,7 +7312,7 @@
         <v>46.469499999999996</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A121">
         <v>35</v>
       </c>
@@ -7335,7 +7336,7 @@
         <v>31.880499999999998</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A122">
         <v>35</v>
       </c>
@@ -7359,7 +7360,7 @@
         <v>128.06200000000001</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A123">
         <v>35</v>
       </c>
@@ -7383,7 +7384,7 @@
         <v>137.666</v>
       </c>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A124">
         <v>35</v>
       </c>
@@ -7407,7 +7408,7 @@
         <v>152.34899999999999</v>
       </c>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A125">
         <v>35</v>
       </c>
@@ -7431,7 +7432,7 @@
         <v>139.28300000000002</v>
       </c>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A126">
         <v>35</v>
       </c>
@@ -7455,7 +7456,7 @@
         <v>103.178</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A127">
         <v>35</v>
       </c>
@@ -7479,7 +7480,7 @@
         <v>108.625</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A128">
         <v>35</v>
       </c>
@@ -7503,7 +7504,7 @@
         <v>105.69800000000001</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A129">
         <v>35</v>
       </c>
@@ -7527,7 +7528,7 @@
         <v>104.96100000000001</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A130">
         <v>35</v>
       </c>
@@ -7551,7 +7552,7 @@
         <v>158.94</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A131">
         <v>35</v>
       </c>
@@ -7575,7 +7576,7 @@
         <v>160.08999999999997</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A132">
         <v>35</v>
       </c>
@@ -7599,7 +7600,7 @@
         <v>70.549499999999995</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A133">
         <v>35</v>
       </c>
@@ -7623,7 +7624,7 @@
         <v>84.555000000000007</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A134">
         <v>35</v>
       </c>
@@ -7647,7 +7648,7 @@
         <v>46.518500000000003</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A135">
         <v>35</v>
       </c>
@@ -7671,7 +7672,7 @@
         <v>53.456999999999994</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A136">
         <v>35</v>
       </c>
@@ -7695,7 +7696,7 @@
         <v>71.151499999999999</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A137">
         <v>35</v>
       </c>
@@ -7719,7 +7720,7 @@
         <v>55.391999999999996</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A138">
         <v>35</v>
       </c>
@@ -7743,7 +7744,7 @@
         <v>48.783000000000001</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A139">
         <v>35</v>
       </c>
@@ -7767,7 +7768,7 @@
         <v>53.856999999999999</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A140">
         <v>35</v>
       </c>
@@ -7791,7 +7792,7 @@
         <v>53.887500000000003</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A141">
         <v>35</v>
       </c>
@@ -7815,7 +7816,7 @@
         <v>37.633499999999998</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A142">
         <v>35</v>
       </c>
@@ -7839,7 +7840,7 @@
         <v>67.636499999999998</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A143">
         <v>35</v>
       </c>
@@ -7863,7 +7864,7 @@
         <v>65.265999999999991</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A144">
         <v>35</v>
       </c>
@@ -7887,7 +7888,7 @@
         <v>47.669499999999999</v>
       </c>
     </row>
-    <row r="145" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A145">
         <v>35</v>
       </c>
@@ -7911,7 +7912,7 @@
         <v>47.864999999999995</v>
       </c>
     </row>
-    <row r="146" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A146">
         <v>35</v>
       </c>
@@ -7935,7 +7936,7 @@
         <v>95.998999999999995</v>
       </c>
     </row>
-    <row r="147" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A147">
         <v>35</v>
       </c>
@@ -7959,7 +7960,7 @@
         <v>63.336500000000001</v>
       </c>
     </row>
-    <row r="148" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A148">
         <v>35</v>
       </c>
@@ -7983,7 +7984,7 @@
         <v>164.78800000000001</v>
       </c>
     </row>
-    <row r="149" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A149">
         <v>35</v>
       </c>
@@ -8007,7 +8008,7 @@
         <v>161.42099999999999</v>
       </c>
     </row>
-    <row r="150" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A150">
         <v>35</v>
       </c>
@@ -8031,7 +8032,7 @@
         <v>115.678</v>
       </c>
     </row>
-    <row r="151" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A151">
         <v>35</v>
       </c>
@@ -8055,7 +8056,7 @@
         <v>113.14099999999999</v>
       </c>
     </row>
-    <row r="152" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A152">
         <v>35</v>
       </c>
@@ -8079,7 +8080,7 @@
         <v>135.934</v>
       </c>
     </row>
-    <row r="153" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A153">
         <v>35</v>
       </c>
@@ -8103,7 +8104,7 @@
         <v>112.80799999999999</v>
       </c>
     </row>
-    <row r="154" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A154">
         <v>35</v>
       </c>
@@ -8127,7 +8128,7 @@
         <v>121.666</v>
       </c>
     </row>
-    <row r="155" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A155">
         <v>35</v>
       </c>
@@ -8151,7 +8152,7 @@
         <v>123.467</v>
       </c>
     </row>
-    <row r="156" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A156">
         <v>35</v>
       </c>
@@ -8175,7 +8176,7 @@
         <v>68.510500000000008</v>
       </c>
     </row>
-    <row r="157" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A157">
         <v>35</v>
       </c>
@@ -8199,7 +8200,7 @@
         <v>60.977499999999999</v>
       </c>
     </row>
-    <row r="158" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A158">
         <v>35</v>
       </c>
@@ -8223,7 +8224,7 @@
         <v>97.232499999999987</v>
       </c>
     </row>
-    <row r="159" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A159">
         <v>35</v>
       </c>
@@ -8241,7 +8242,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="160" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A160">
         <v>35</v>
       </c>
@@ -8259,7 +8260,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="161" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A161">
         <v>35</v>
       </c>
@@ -8277,7 +8278,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="162" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A162">
         <v>35</v>
       </c>
@@ -8295,7 +8296,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="163" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A163">
         <v>35</v>
       </c>
@@ -8313,7 +8314,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="164" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A164">
         <v>35</v>
       </c>
@@ -8331,7 +8332,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="165" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A165">
         <v>500</v>
       </c>
@@ -8355,7 +8356,7 @@
         <v>90.087500000000006</v>
       </c>
     </row>
-    <row r="166" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A166">
         <v>500</v>
       </c>
@@ -8379,7 +8380,7 @@
         <v>86.261499999999998</v>
       </c>
     </row>
-    <row r="167" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A167">
         <v>500</v>
       </c>
@@ -8403,7 +8404,7 @@
         <v>99.885500000000008</v>
       </c>
     </row>
-    <row r="168" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A168">
         <v>500</v>
       </c>
@@ -8427,7 +8428,7 @@
         <v>66.282499999999999</v>
       </c>
     </row>
-    <row r="169" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A169">
         <v>500</v>
       </c>
@@ -8451,7 +8452,7 @@
         <v>100.935</v>
       </c>
     </row>
-    <row r="170" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A170">
         <v>500</v>
       </c>
@@ -8475,7 +8476,7 @@
         <v>113.37</v>
       </c>
     </row>
-    <row r="171" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A171">
         <v>500</v>
       </c>
@@ -8499,7 +8500,7 @@
         <v>114.62100000000001</v>
       </c>
     </row>
-    <row r="172" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A172">
         <v>500</v>
       </c>
@@ -8523,7 +8524,7 @@
         <v>99.085999999999999</v>
       </c>
     </row>
-    <row r="173" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A173">
         <v>500</v>
       </c>
@@ -8547,7 +8548,7 @@
         <v>87.399000000000001</v>
       </c>
     </row>
-    <row r="174" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A174">
         <v>500</v>
       </c>
@@ -8571,7 +8572,7 @@
         <v>55.606000000000002</v>
       </c>
     </row>
-    <row r="175" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A175">
         <v>500</v>
       </c>
@@ -8595,7 +8596,7 @@
         <v>116.583</v>
       </c>
     </row>
-    <row r="176" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:25" x14ac:dyDescent="0.45">
       <c r="A176">
         <v>500</v>
       </c>
@@ -8619,7 +8620,7 @@
         <v>100.315</v>
       </c>
     </row>
-    <row r="177" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A177">
         <v>500</v>
       </c>
@@ -8643,7 +8644,7 @@
         <v>113.13499999999999</v>
       </c>
     </row>
-    <row r="178" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A178">
         <v>500</v>
       </c>
@@ -8667,7 +8668,7 @@
         <v>96.175000000000011</v>
       </c>
     </row>
-    <row r="179" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A179">
         <v>500</v>
       </c>
@@ -8691,7 +8692,7 @@
         <v>76.260000000000005</v>
       </c>
     </row>
-    <row r="180" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A180">
         <v>500</v>
       </c>
@@ -8715,7 +8716,7 @@
         <v>141.81399999999999</v>
       </c>
     </row>
-    <row r="181" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A181">
         <v>500</v>
       </c>
@@ -8739,7 +8740,7 @@
         <v>129.19200000000001</v>
       </c>
     </row>
-    <row r="182" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A182">
         <v>500</v>
       </c>
@@ -8763,7 +8764,7 @@
         <v>61.212000000000003</v>
       </c>
     </row>
-    <row r="183" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A183">
         <v>500</v>
       </c>
@@ -8778,7 +8779,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="184" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A184">
         <v>500</v>
       </c>
@@ -8793,7 +8794,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="185" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A185">
         <v>501</v>
       </c>
@@ -8817,7 +8818,7 @@
         <v>189.43799999999999</v>
       </c>
     </row>
-    <row r="186" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A186">
         <v>501</v>
       </c>
@@ -8841,7 +8842,7 @@
         <v>107.08799999999999</v>
       </c>
     </row>
-    <row r="187" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A187">
         <v>501</v>
       </c>
@@ -8865,7 +8866,7 @@
         <v>194.68799999999999</v>
       </c>
     </row>
-    <row r="188" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A188">
         <v>501</v>
       </c>
@@ -8889,7 +8890,7 @@
         <v>107.00999999999999</v>
       </c>
     </row>
-    <row r="189" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A189">
         <v>501</v>
       </c>
@@ -8913,7 +8914,7 @@
         <v>157.00700000000001</v>
       </c>
     </row>
-    <row r="190" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A190">
         <v>501</v>
       </c>
@@ -8937,7 +8938,7 @@
         <v>136.99600000000001</v>
       </c>
     </row>
-    <row r="191" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A191">
         <v>501</v>
       </c>
@@ -8961,7 +8962,7 @@
         <v>134.55699999999999</v>
       </c>
     </row>
-    <row r="192" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A192">
         <v>501</v>
       </c>
@@ -8985,7 +8986,7 @@
         <v>169.548</v>
       </c>
     </row>
-    <row r="193" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A193">
         <v>501</v>
       </c>
@@ -9009,7 +9010,7 @@
         <v>157.446</v>
       </c>
     </row>
-    <row r="194" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A194">
         <v>501</v>
       </c>
@@ -9033,7 +9034,7 @@
         <v>144.654</v>
       </c>
     </row>
-    <row r="195" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A195">
         <v>501</v>
       </c>
@@ -9057,7 +9058,7 @@
         <v>91.460499999999996</v>
       </c>
     </row>
-    <row r="196" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A196">
         <v>501</v>
       </c>
@@ -9081,7 +9082,7 @@
         <v>120.595</v>
       </c>
     </row>
-    <row r="197" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A197">
         <v>501</v>
       </c>
@@ -9105,7 +9106,7 @@
         <v>100.33799999999999</v>
       </c>
     </row>
-    <row r="198" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A198">
         <v>501</v>
       </c>
@@ -9129,7 +9130,7 @@
         <v>166.67400000000001</v>
       </c>
     </row>
-    <row r="199" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A199">
         <v>501</v>
       </c>
@@ -9153,7 +9154,7 @@
         <v>151.309</v>
       </c>
     </row>
-    <row r="200" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A200">
         <v>501</v>
       </c>
@@ -9177,7 +9178,7 @@
         <v>95.799000000000007</v>
       </c>
     </row>
-    <row r="201" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A201">
         <v>501</v>
       </c>
@@ -9201,7 +9202,7 @@
         <v>97.359000000000009</v>
       </c>
     </row>
-    <row r="202" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A202">
         <v>501</v>
       </c>
@@ -9225,7 +9226,7 @@
         <v>62.628</v>
       </c>
     </row>
-    <row r="203" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A203">
         <v>501</v>
       </c>
@@ -9249,7 +9250,7 @@
         <v>71.858499999999992</v>
       </c>
     </row>
-    <row r="204" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A204">
         <v>501</v>
       </c>
@@ -9273,7 +9274,7 @@
         <v>160.83600000000001</v>
       </c>
     </row>
-    <row r="205" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A205">
         <v>501</v>
       </c>
@@ -9297,7 +9298,7 @@
         <v>153.23399999999998</v>
       </c>
     </row>
-    <row r="206" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A206">
         <v>501</v>
       </c>
@@ -9321,7 +9322,7 @@
         <v>142.749</v>
       </c>
     </row>
-    <row r="207" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A207">
         <v>501</v>
       </c>
@@ -9345,7 +9346,7 @@
         <v>151.42699999999999</v>
       </c>
     </row>
-    <row r="208" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A208">
         <v>501</v>
       </c>
@@ -9369,7 +9370,7 @@
         <v>139.69400000000002</v>
       </c>
     </row>
-    <row r="209" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A209">
         <v>501</v>
       </c>
@@ -9393,7 +9394,7 @@
         <v>134.43299999999999</v>
       </c>
     </row>
-    <row r="210" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A210">
         <v>501</v>
       </c>
@@ -9417,7 +9418,7 @@
         <v>134.00200000000001</v>
       </c>
     </row>
-    <row r="211" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A211">
         <v>501</v>
       </c>
@@ -9441,7 +9442,7 @@
         <v>125.47800000000001</v>
       </c>
     </row>
-    <row r="212" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A212">
         <v>501</v>
       </c>
@@ -9465,7 +9466,7 @@
         <v>116.539</v>
       </c>
     </row>
-    <row r="213" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A213">
         <v>501</v>
       </c>
@@ -9489,7 +9490,7 @@
         <v>92.628999999999991</v>
       </c>
     </row>
-    <row r="214" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A214">
         <v>501</v>
       </c>
@@ -9513,7 +9514,7 @@
         <v>77.711999999999989</v>
       </c>
     </row>
-    <row r="215" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A215">
         <v>501</v>
       </c>
@@ -9537,7 +9538,7 @@
         <v>70.996000000000009</v>
       </c>
     </row>
-    <row r="216" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A216">
         <v>501</v>
       </c>
@@ -9561,7 +9562,7 @@
         <v>130.18200000000002</v>
       </c>
     </row>
-    <row r="217" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A217">
         <v>501</v>
       </c>
@@ -9585,7 +9586,7 @@
         <v>119.59399999999999</v>
       </c>
     </row>
-    <row r="218" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A218">
         <v>501</v>
       </c>
@@ -9609,7 +9610,7 @@
         <v>58.3065</v>
       </c>
     </row>
-    <row r="219" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A219">
         <v>501</v>
       </c>
@@ -9633,7 +9634,7 @@
         <v>122.47499999999999</v>
       </c>
     </row>
-    <row r="220" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A220">
         <v>501</v>
       </c>
@@ -9657,7 +9658,7 @@
         <v>98.804000000000002</v>
       </c>
     </row>
-    <row r="221" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A221">
         <v>501</v>
       </c>
@@ -9681,7 +9682,7 @@
         <v>76.943000000000012</v>
       </c>
     </row>
-    <row r="222" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A222">
         <v>501</v>
       </c>
@@ -9705,7 +9706,7 @@
         <v>52.623000000000005</v>
       </c>
     </row>
-    <row r="223" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A223">
         <v>501</v>
       </c>
@@ -9729,7 +9730,7 @@
         <v>54.081499999999998</v>
       </c>
     </row>
-    <row r="224" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A224">
         <v>501</v>
       </c>
@@ -9750,7 +9751,7 @@
         <v>81.140500000000003</v>
       </c>
     </row>
-    <row r="225" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A225">
         <v>501</v>
       </c>
@@ -9765,7 +9766,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="226" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A226">
         <v>501</v>
       </c>
@@ -9780,7 +9781,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="227" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A227">
         <v>501</v>
       </c>
@@ -9795,7 +9796,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="228" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A228">
         <v>501</v>
       </c>
@@ -9810,7 +9811,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="229" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A229">
         <v>502</v>
       </c>
@@ -9834,7 +9835,7 @@
         <v>87.6</v>
       </c>
     </row>
-    <row r="230" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A230">
         <v>502</v>
       </c>
@@ -9858,7 +9859,7 @@
         <v>94.328499999999991</v>
       </c>
     </row>
-    <row r="231" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A231">
         <v>502</v>
       </c>
@@ -9882,7 +9883,7 @@
         <v>102.14099999999999</v>
       </c>
     </row>
-    <row r="232" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A232">
         <v>502</v>
       </c>
@@ -9906,7 +9907,7 @@
         <v>92.911500000000004</v>
       </c>
     </row>
-    <row r="233" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A233">
         <v>502</v>
       </c>
@@ -9930,7 +9931,7 @@
         <v>104.039</v>
       </c>
     </row>
-    <row r="234" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A234">
         <v>502</v>
       </c>
@@ -9954,7 +9955,7 @@
         <v>101.699</v>
       </c>
     </row>
-    <row r="235" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A235">
         <v>502</v>
       </c>
@@ -9978,7 +9979,7 @@
         <v>103.422</v>
       </c>
     </row>
-    <row r="236" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A236">
         <v>502</v>
       </c>
@@ -10002,7 +10003,7 @@
         <v>106.67400000000001</v>
       </c>
     </row>
-    <row r="237" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A237">
         <v>502</v>
       </c>
@@ -10026,7 +10027,7 @@
         <v>95.754000000000005</v>
       </c>
     </row>
-    <row r="238" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A238">
         <v>502</v>
       </c>
@@ -10050,7 +10051,7 @@
         <v>97.3155</v>
       </c>
     </row>
-    <row r="239" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A239">
         <v>502</v>
       </c>
@@ -10074,7 +10075,7 @@
         <v>97.790500000000009</v>
       </c>
     </row>
-    <row r="240" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A240">
         <v>502</v>
       </c>
@@ -10098,7 +10099,7 @@
         <v>95.910499999999999</v>
       </c>
     </row>
-    <row r="241" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A241">
         <v>502</v>
       </c>
@@ -10122,7 +10123,7 @@
         <v>77.418999999999997</v>
       </c>
     </row>
-    <row r="242" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A242">
         <v>502</v>
       </c>
@@ -10146,7 +10147,7 @@
         <v>81.213999999999999</v>
       </c>
     </row>
-    <row r="243" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A243">
         <v>502</v>
       </c>
@@ -10170,7 +10171,7 @@
         <v>56.884999999999998</v>
       </c>
     </row>
-    <row r="244" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A244">
         <v>502</v>
       </c>
@@ -10194,7 +10195,7 @@
         <v>57.0595</v>
       </c>
     </row>
-    <row r="245" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A245">
         <v>502</v>
       </c>
@@ -10218,7 +10219,7 @@
         <v>58.954000000000001</v>
       </c>
     </row>
-    <row r="246" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A246">
         <v>502</v>
       </c>
@@ -10242,7 +10243,7 @@
         <v>64.381</v>
       </c>
     </row>
-    <row r="247" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A247">
         <v>502</v>
       </c>
@@ -10266,7 +10267,7 @@
         <v>69.402000000000001</v>
       </c>
     </row>
-    <row r="248" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A248">
         <v>502</v>
       </c>
@@ -10290,7 +10291,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="249" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A249">
         <v>502</v>
       </c>
@@ -10314,7 +10315,7 @@
         <v>55.83</v>
       </c>
     </row>
-    <row r="250" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A250">
         <v>502</v>
       </c>
@@ -10338,7 +10339,7 @@
         <v>58.760000000000005</v>
       </c>
     </row>
-    <row r="251" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A251">
         <v>502</v>
       </c>
@@ -10362,7 +10363,7 @@
         <v>63.257000000000005</v>
       </c>
     </row>
-    <row r="252" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A252">
         <v>502</v>
       </c>
@@ -10386,7 +10387,7 @@
         <v>78.174499999999995</v>
       </c>
     </row>
-    <row r="253" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A253">
         <v>502</v>
       </c>
@@ -10410,7 +10411,7 @@
         <v>96.573499999999996</v>
       </c>
     </row>
-    <row r="254" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A254">
         <v>502</v>
       </c>
@@ -10434,7 +10435,7 @@
         <v>92.831999999999994</v>
       </c>
     </row>
-    <row r="255" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A255">
         <v>502</v>
       </c>
@@ -10458,7 +10459,7 @@
         <v>65.394000000000005</v>
       </c>
     </row>
-    <row r="256" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A256">
         <v>502</v>
       </c>
@@ -10482,7 +10483,7 @@
         <v>86.503500000000003</v>
       </c>
     </row>
-    <row r="257" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A257">
         <v>502</v>
       </c>
@@ -10506,7 +10507,7 @@
         <v>73.795000000000002</v>
       </c>
     </row>
-    <row r="258" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A258">
         <v>502</v>
       </c>
@@ -10530,7 +10531,7 @@
         <v>63.996000000000002</v>
       </c>
     </row>
-    <row r="259" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A259">
         <v>502</v>
       </c>
@@ -10554,7 +10555,7 @@
         <v>66.576999999999998</v>
       </c>
     </row>
-    <row r="260" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A260">
         <v>502</v>
       </c>
@@ -10578,7 +10579,7 @@
         <v>71.617999999999995</v>
       </c>
     </row>
-    <row r="261" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A261">
         <v>502</v>
       </c>
@@ -10602,7 +10603,7 @@
         <v>63.688500000000005</v>
       </c>
     </row>
-    <row r="262" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A262">
         <v>502</v>
       </c>
@@ -10626,7 +10627,7 @@
         <v>98.028500000000008</v>
       </c>
     </row>
-    <row r="263" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A263">
         <v>502</v>
       </c>
@@ -10650,7 +10651,7 @@
         <v>63.263000000000005</v>
       </c>
     </row>
-    <row r="264" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A264">
         <v>502</v>
       </c>
@@ -10674,7 +10675,7 @@
         <v>98.149500000000003</v>
       </c>
     </row>
-    <row r="265" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A265">
         <v>502</v>
       </c>
@@ -10698,7 +10699,7 @@
         <v>69.663499999999999</v>
       </c>
     </row>
-    <row r="266" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A266">
         <v>502</v>
       </c>
@@ -10722,7 +10723,7 @@
         <v>77.867500000000007</v>
       </c>
     </row>
-    <row r="267" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A267">
         <v>502</v>
       </c>
@@ -10746,7 +10747,7 @@
         <v>83.013499999999993</v>
       </c>
     </row>
-    <row r="268" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A268">
         <v>502</v>
       </c>
@@ -10770,7 +10771,7 @@
         <v>64.162000000000006</v>
       </c>
     </row>
-    <row r="269" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A269">
         <v>502</v>
       </c>
@@ -10794,7 +10795,7 @@
         <v>64.248000000000005</v>
       </c>
     </row>
-    <row r="270" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A270">
         <v>502</v>
       </c>
@@ -10818,7 +10819,7 @@
         <v>77.077499999999986</v>
       </c>
     </row>
-    <row r="271" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A271">
         <v>502</v>
       </c>
@@ -10842,7 +10843,7 @@
         <v>74.578000000000003</v>
       </c>
     </row>
-    <row r="272" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A272">
         <v>502</v>
       </c>
@@ -10866,7 +10867,7 @@
         <v>104.744</v>
       </c>
     </row>
-    <row r="273" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A273">
         <v>502</v>
       </c>
@@ -10890,7 +10891,7 @@
         <v>56.03</v>
       </c>
     </row>
-    <row r="274" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A274">
         <v>502</v>
       </c>
@@ -10914,7 +10915,7 @@
         <v>67.001000000000005</v>
       </c>
     </row>
-    <row r="275" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A275">
         <v>502</v>
       </c>
@@ -10938,7 +10939,7 @@
         <v>64.453000000000003</v>
       </c>
     </row>
-    <row r="276" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A276">
         <v>502</v>
       </c>
@@ -10962,7 +10963,7 @@
         <v>50.765500000000003</v>
       </c>
     </row>
-    <row r="277" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A277">
         <v>502</v>
       </c>
@@ -10986,7 +10987,7 @@
         <v>104.211</v>
       </c>
     </row>
-    <row r="278" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A278">
         <v>502</v>
       </c>
@@ -11010,7 +11011,7 @@
         <v>71.714499999999987</v>
       </c>
     </row>
-    <row r="279" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A279">
         <v>502</v>
       </c>
@@ -11034,7 +11035,7 @@
         <v>100.12899999999999</v>
       </c>
     </row>
-    <row r="280" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A280">
         <v>502</v>
       </c>
@@ -11058,7 +11059,7 @@
         <v>81.781000000000006</v>
       </c>
     </row>
-    <row r="281" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A281">
         <v>502</v>
       </c>
@@ -11082,7 +11083,7 @@
         <v>91.638999999999996</v>
       </c>
     </row>
-    <row r="282" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A282">
         <v>502</v>
       </c>
@@ -11106,7 +11107,7 @@
         <v>76.421999999999997</v>
       </c>
     </row>
-    <row r="283" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A283">
         <v>502</v>
       </c>
@@ -11130,7 +11131,7 @@
         <v>88.274499999999989</v>
       </c>
     </row>
-    <row r="284" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A284">
         <v>502</v>
       </c>
@@ -11154,7 +11155,7 @@
         <v>90.271500000000003</v>
       </c>
     </row>
-    <row r="285" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A285">
         <v>502</v>
       </c>
@@ -11178,7 +11179,7 @@
         <v>89.830500000000001</v>
       </c>
     </row>
-    <row r="286" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A286">
         <v>502</v>
       </c>
@@ -11202,7 +11203,7 @@
         <v>88.505499999999998</v>
       </c>
     </row>
-    <row r="287" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A287">
         <v>502</v>
       </c>
@@ -11226,7 +11227,7 @@
         <v>92.841000000000008</v>
       </c>
     </row>
-    <row r="288" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A288">
         <v>502</v>
       </c>
@@ -11250,7 +11251,7 @@
         <v>96.157499999999999</v>
       </c>
     </row>
-    <row r="289" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A289">
         <v>502</v>
       </c>
@@ -11274,7 +11275,7 @@
         <v>94.438999999999993</v>
       </c>
     </row>
-    <row r="290" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A290">
         <v>502</v>
       </c>
@@ -11298,7 +11299,7 @@
         <v>104.03</v>
       </c>
     </row>
-    <row r="291" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A291">
         <v>502</v>
       </c>
@@ -11322,7 +11323,7 @@
         <v>103.476</v>
       </c>
     </row>
-    <row r="292" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A292">
         <v>502</v>
       </c>
@@ -11346,7 +11347,7 @@
         <v>108.03800000000001</v>
       </c>
     </row>
-    <row r="293" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A293">
         <v>502</v>
       </c>
@@ -11370,7 +11371,7 @@
         <v>109.81399999999999</v>
       </c>
     </row>
-    <row r="294" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A294">
         <v>502</v>
       </c>
@@ -11394,7 +11395,7 @@
         <v>106.51</v>
       </c>
     </row>
-    <row r="295" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A295">
         <v>502</v>
       </c>
@@ -11418,7 +11419,7 @@
         <v>104.09399999999999</v>
       </c>
     </row>
-    <row r="296" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A296">
         <v>502</v>
       </c>
@@ -11442,7 +11443,7 @@
         <v>112.38499999999999</v>
       </c>
     </row>
-    <row r="297" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A297">
         <v>502</v>
       </c>
@@ -11466,7 +11467,7 @@
         <v>114.863</v>
       </c>
     </row>
-    <row r="298" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A298">
         <v>502</v>
       </c>
@@ -11490,7 +11491,7 @@
         <v>103.92699999999999</v>
       </c>
     </row>
-    <row r="299" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A299">
         <v>502</v>
       </c>
@@ -11514,7 +11515,7 @@
         <v>106.554</v>
       </c>
     </row>
-    <row r="300" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A300">
         <v>502</v>
       </c>
@@ -11538,7 +11539,7 @@
         <v>102.30199999999999</v>
       </c>
     </row>
-    <row r="301" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A301">
         <v>502</v>
       </c>
@@ -11562,7 +11563,7 @@
         <v>98.081500000000005</v>
       </c>
     </row>
-    <row r="302" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A302">
         <v>502</v>
       </c>
@@ -11577,7 +11578,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="303" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A303">
         <v>502</v>
       </c>
@@ -11592,7 +11593,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="304" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A304">
         <v>502</v>
       </c>
@@ -11607,7 +11608,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="305" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A305">
         <v>502</v>
       </c>
@@ -11622,7 +11623,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="306" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A306">
         <v>502</v>
       </c>
@@ -11637,7 +11638,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="307" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A307">
         <v>502</v>
       </c>
@@ -11652,7 +11653,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="308" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A308">
         <v>502</v>
       </c>
@@ -11667,7 +11668,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="309" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A309">
         <v>502</v>
       </c>
@@ -11682,7 +11683,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="310" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A310">
         <v>502</v>
       </c>
@@ -11697,7 +11698,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="311" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A311">
         <v>502</v>
       </c>
@@ -11712,7 +11713,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="312" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A312">
         <v>502</v>
       </c>
@@ -11733,7 +11734,7 @@
         <v>32.919499999999999</v>
       </c>
     </row>
-    <row r="313" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:26" x14ac:dyDescent="0.45">
       <c r="A313">
         <v>502</v>
       </c>
@@ -11754,7 +11755,7 @@
         <v>54.603499999999997</v>
       </c>
     </row>
-    <row r="314" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:26" x14ac:dyDescent="0.45">
       <c r="B314" t="s">
         <v>946</v>
       </c>
@@ -11772,7 +11773,7 @@
         <v>84.326999999999998</v>
       </c>
     </row>
-    <row r="315" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:26" x14ac:dyDescent="0.45">
       <c r="B315" t="s">
         <v>948</v>
       </c>
@@ -11790,7 +11791,7 @@
         <v>106.751</v>
       </c>
     </row>
-    <row r="316" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:26" x14ac:dyDescent="0.45">
       <c r="B316" t="s">
         <v>950</v>
       </c>
@@ -11808,7 +11809,7 @@
         <v>101.66200000000001</v>
       </c>
     </row>
-    <row r="317" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:26" x14ac:dyDescent="0.45">
       <c r="B317" t="s">
         <v>952</v>
       </c>
@@ -11826,7 +11827,7 @@
         <v>85.72</v>
       </c>
     </row>
-    <row r="318" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:26" x14ac:dyDescent="0.45">
       <c r="B318" t="s">
         <v>954</v>
       </c>
@@ -11844,7 +11845,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="319" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:26" x14ac:dyDescent="0.45">
       <c r="B319" t="s">
         <v>956</v>
       </c>
@@ -11862,7 +11863,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="320" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:26" x14ac:dyDescent="0.45">
       <c r="B320" t="s">
         <v>24</v>
       </c>
@@ -11880,7 +11881,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="321" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="321" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B321" t="s">
         <v>957</v>
       </c>
@@ -11898,7 +11899,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="322" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="322" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B322" t="s">
         <v>958</v>
       </c>
@@ -11916,7 +11917,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="323" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="323" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B323" t="s">
         <v>959</v>
       </c>
@@ -11934,7 +11935,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="324" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="324" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B324" t="s">
         <v>960</v>
       </c>
@@ -11952,7 +11953,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="325" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="325" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B325" t="s">
         <v>961</v>
       </c>
@@ -11970,7 +11971,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="326" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="326" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B326" t="s">
         <v>962</v>
       </c>
@@ -11988,7 +11989,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="327" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="327" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B327" t="s">
         <v>963</v>
       </c>
@@ -12002,7 +12003,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="328" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="328" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B328" t="s">
         <v>9</v>
       </c>
@@ -12016,7 +12017,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="329" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="329" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B329" t="s">
         <v>964</v>
       </c>
@@ -12030,7 +12031,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="330" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="330" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B330" t="s">
         <v>965</v>
       </c>
@@ -12044,7 +12045,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="331" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="331" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B331" t="s">
         <v>966</v>
       </c>
@@ -12058,7 +12059,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="332" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="332" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B332" t="s">
         <v>967</v>
       </c>
@@ -12072,7 +12073,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="333" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="333" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B333" t="s">
         <v>968</v>
       </c>
@@ -12086,7 +12087,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="334" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="334" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B334" t="s">
         <v>969</v>
       </c>
@@ -12100,7 +12101,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="335" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="335" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B335" t="s">
         <v>970</v>
       </c>
@@ -12114,7 +12115,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="336" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="336" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B336" t="s">
         <v>971</v>
       </c>
@@ -12128,7 +12129,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="337" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="337" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B337" t="s">
         <v>972</v>
       </c>
@@ -12142,7 +12143,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="338" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="338" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B338" t="s">
         <v>63</v>
       </c>
@@ -12156,7 +12157,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="339" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="339" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B339" t="s">
         <v>973</v>
       </c>
@@ -12170,7 +12171,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="340" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="340" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B340" t="s">
         <v>974</v>
       </c>
@@ -12184,7 +12185,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="341" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="341" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B341" t="s">
         <v>101</v>
       </c>
@@ -12198,7 +12199,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="342" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="342" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B342" t="s">
         <v>975</v>
       </c>
@@ -12212,7 +12213,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="343" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="343" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B343" t="s">
         <v>976</v>
       </c>
@@ -12226,7 +12227,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="344" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="344" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B344" t="s">
         <v>977</v>
       </c>
@@ -12240,7 +12241,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="345" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="345" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B345" t="s">
         <v>978</v>
       </c>
@@ -12254,7 +12255,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="346" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="346" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B346" t="s">
         <v>979</v>
       </c>
@@ -12268,7 +12269,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="347" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="347" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B347" t="s">
         <v>980</v>
       </c>
@@ -12282,7 +12283,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="348" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="348" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B348" t="s">
         <v>981</v>
       </c>
@@ -12296,7 +12297,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="349" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="349" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B349" t="s">
         <v>982</v>
       </c>
@@ -12310,7 +12311,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="350" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="350" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B350" t="s">
         <v>983</v>
       </c>
@@ -12324,7 +12325,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="351" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="351" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B351" t="s">
         <v>984</v>
       </c>
@@ -12338,7 +12339,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="352" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="352" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B352" t="s">
         <v>985</v>
       </c>
@@ -12352,7 +12353,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="353" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="353" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B353" t="s">
         <v>110</v>
       </c>
@@ -12366,7 +12367,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="354" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="354" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B354" t="s">
         <v>986</v>
       </c>
@@ -12380,7 +12381,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="355" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="355" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B355" t="s">
         <v>987</v>
       </c>
@@ -12394,7 +12395,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="356" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="356" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B356" t="s">
         <v>988</v>
       </c>
@@ -12408,7 +12409,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="357" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="357" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B357" t="s">
         <v>989</v>
       </c>
@@ -12422,7 +12423,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="358" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="358" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B358" t="s">
         <v>990</v>
       </c>
@@ -12436,7 +12437,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="359" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="359" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B359" t="s">
         <v>991</v>
       </c>
@@ -12450,7 +12451,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="360" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="360" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B360" t="s">
         <v>992</v>
       </c>
@@ -12464,7 +12465,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="361" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="361" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B361" t="s">
         <v>993</v>
       </c>
@@ -12478,7 +12479,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="362" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="362" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B362" t="s">
         <v>994</v>
       </c>
@@ -12492,7 +12493,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="363" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="363" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B363" t="s">
         <v>995</v>
       </c>
@@ -12506,7 +12507,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="364" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="364" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B364" t="s">
         <v>996</v>
       </c>
@@ -12520,7 +12521,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="365" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="365" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B365" t="s">
         <v>997</v>
       </c>
@@ -12534,7 +12535,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="366" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="366" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B366" t="s">
         <v>998</v>
       </c>
@@ -12548,7 +12549,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="367" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="367" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B367" t="s">
         <v>999</v>
       </c>
@@ -12562,7 +12563,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="368" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="368" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B368" t="s">
         <v>1000</v>
       </c>
@@ -12576,7 +12577,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="369" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="369" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B369" t="s">
         <v>1001</v>
       </c>
@@ -12590,7 +12591,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="370" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="370" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B370" t="s">
         <v>1002</v>
       </c>
@@ -12604,7 +12605,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="371" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="371" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B371" t="s">
         <v>1003</v>
       </c>
@@ -12618,7 +12619,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="372" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="372" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B372" t="s">
         <v>1004</v>
       </c>
@@ -12632,7 +12633,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="373" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="373" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B373" t="s">
         <v>1005</v>
       </c>
@@ -12646,7 +12647,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="374" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="374" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B374" t="s">
         <v>1006</v>
       </c>
@@ -12660,7 +12661,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="375" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="375" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B375" t="s">
         <v>1007</v>
       </c>
@@ -12674,7 +12675,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="376" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="376" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B376" t="s">
         <v>1008</v>
       </c>
@@ -12688,7 +12689,7 @@
         <v>955</v>
       </c>
     </row>
-    <row r="377" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="377" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B377" t="s">
         <v>1009</v>
       </c>
@@ -12696,7 +12697,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="378" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="378" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B378" t="s">
         <v>1011</v>
       </c>
@@ -12704,7 +12705,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="379" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="379" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B379" t="s">
         <v>1012</v>
       </c>
@@ -12712,7 +12713,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="380" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="380" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B380" t="s">
         <v>1013</v>
       </c>
@@ -12720,7 +12721,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="381" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="381" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B381" t="s">
         <v>1014</v>
       </c>
@@ -12728,7 +12729,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="382" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="382" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B382" t="s">
         <v>1015</v>
       </c>
@@ -12736,7 +12737,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="383" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="383" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B383" t="s">
         <v>1016</v>
       </c>
@@ -12744,7 +12745,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="384" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="384" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B384" t="s">
         <v>1017</v>
       </c>
@@ -12752,7 +12753,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="385" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="385" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B385" t="s">
         <v>1018</v>
       </c>
@@ -12760,7 +12761,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="386" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="386" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B386" t="s">
         <v>1019</v>
       </c>
@@ -12774,7 +12775,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="387" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="387" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B387" t="s">
         <v>1021</v>
       </c>
@@ -12788,7 +12789,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="388" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="388" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B388" t="s">
         <v>1022</v>
       </c>
@@ -12802,7 +12803,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="389" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="389" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B389" t="s">
         <v>1023</v>
       </c>
@@ -12816,7 +12817,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="390" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="390" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B390" t="s">
         <v>1024</v>
       </c>
@@ -12830,7 +12831,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="391" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="391" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B391" t="s">
         <v>1025</v>
       </c>
@@ -12844,7 +12845,7 @@
         <v>1.8</v>
       </c>
     </row>
-    <row r="392" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="392" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B392" t="s">
         <v>1026</v>
       </c>
@@ -12852,7 +12853,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="393" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="393" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B393" t="s">
         <v>1028</v>
       </c>
@@ -12860,7 +12861,7 @@
         <v>1027</v>
       </c>
     </row>
-    <row r="394" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="394" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B394" t="s">
         <v>1029</v>
       </c>
@@ -12868,7 +12869,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="395" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="395" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B395" t="s">
         <v>1031</v>
       </c>
@@ -12876,7 +12877,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="396" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="396" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B396" t="s">
         <v>1033</v>
       </c>
@@ -12884,7 +12885,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="397" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="397" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B397" t="s">
         <v>1034</v>
       </c>
@@ -12892,7 +12893,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="398" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="398" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B398" t="s">
         <v>1035</v>
       </c>
@@ -12900,7 +12901,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="399" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="399" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B399" t="s">
         <v>1036</v>
       </c>
@@ -12908,7 +12909,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="400" spans="2:26" x14ac:dyDescent="0.3">
+    <row r="400" spans="2:26" x14ac:dyDescent="0.45">
       <c r="B400" t="s">
         <v>1037</v>
       </c>
@@ -12916,7 +12917,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="401" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="401" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B401" t="s">
         <v>98</v>
       </c>
@@ -12924,7 +12925,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="402" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="402" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B402" t="s">
         <v>131</v>
       </c>
@@ -12932,7 +12933,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="403" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="403" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B403" t="s">
         <v>1039</v>
       </c>
@@ -12940,7 +12941,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="404" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="404" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B404" t="s">
         <v>1040</v>
       </c>
@@ -12948,7 +12949,7 @@
         <v>1038</v>
       </c>
     </row>
-    <row r="405" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="405" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B405" t="s">
         <v>1041</v>
       </c>
@@ -12962,19 +12963,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J53"/>
   <sheetViews>
     <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="4" max="4" width="32.88671875" customWidth="1"/>
+    <col min="4" max="4" width="32.86328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -12985,7 +12986,7 @@
         <v>148.267</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -12996,12 +12997,12 @@
         <v>164.94300000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -13027,7 +13028,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="6" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B6" s="1" t="s">
         <v>9</v>
       </c>
@@ -13052,7 +13053,7 @@
         <v>0.3609999999999971</v>
       </c>
     </row>
-    <row r="7" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B7" s="3" t="s">
         <v>12</v>
       </c>
@@ -13077,7 +13078,7 @@
         <v>0.65699999999999648</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B8" s="3" t="s">
         <v>15</v>
       </c>
@@ -13102,7 +13103,7 @@
         <v>0.68099999999999739</v>
       </c>
     </row>
-    <row r="9" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B9" s="3" t="s">
         <v>18</v>
       </c>
@@ -13127,7 +13128,7 @@
         <v>0.6769999999999925</v>
       </c>
     </row>
-    <row r="10" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B10" s="3" t="s">
         <v>21</v>
       </c>
@@ -13152,7 +13153,7 @@
         <v>0.59600000000000364</v>
       </c>
     </row>
-    <row r="11" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B11" s="3" t="s">
         <v>24</v>
       </c>
@@ -13177,7 +13178,7 @@
         <v>0.74399999999999977</v>
       </c>
     </row>
-    <row r="12" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B12" s="3" t="s">
         <v>27</v>
       </c>
@@ -13202,7 +13203,7 @@
         <v>0.69199999999999307</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B13" s="3" t="s">
         <v>30</v>
       </c>
@@ -13227,7 +13228,7 @@
         <v>0.67700000000000671</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B14" s="3" t="s">
         <v>33</v>
       </c>
@@ -13252,7 +13253,7 @@
         <v>0.71500000000000341</v>
       </c>
     </row>
-    <row r="15" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B15" s="3" t="s">
         <v>36</v>
       </c>
@@ -13277,7 +13278,7 @@
         <v>0.64300000000000068</v>
       </c>
     </row>
-    <row r="16" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B16" s="3" t="s">
         <v>39</v>
       </c>
@@ -13302,7 +13303,7 @@
         <v>0.56700000000000017</v>
       </c>
     </row>
-    <row r="17" spans="2:8" s="3" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:8" s="3" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B17" s="3" t="s">
         <v>42</v>
       </c>
@@ -13327,7 +13328,7 @@
         <v>0.58200000000000074</v>
       </c>
     </row>
-    <row r="18" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B18" s="2" t="s">
         <v>45</v>
       </c>
@@ -13352,7 +13353,7 @@
         <v>0.59599999999999653</v>
       </c>
     </row>
-    <row r="19" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B19" s="2" t="s">
         <v>48</v>
       </c>
@@ -13377,7 +13378,7 @@
         <v>0.57199999999999562</v>
       </c>
     </row>
-    <row r="20" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B20" s="2" t="s">
         <v>51</v>
       </c>
@@ -13402,7 +13403,7 @@
         <v>0.75400000000000489</v>
       </c>
     </row>
-    <row r="21" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B21" s="2" t="s">
         <v>54</v>
       </c>
@@ -13427,7 +13428,7 @@
         <v>0.71599999999999397</v>
       </c>
     </row>
-    <row r="22" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B22" s="2" t="s">
         <v>57</v>
       </c>
@@ -13452,7 +13453,7 @@
         <v>0.59100000000000108</v>
       </c>
     </row>
-    <row r="23" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B23" s="2" t="s">
         <v>60</v>
       </c>
@@ -13477,7 +13478,7 @@
         <v>0.69799999999999329</v>
       </c>
     </row>
-    <row r="24" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B24" s="2" t="s">
         <v>63</v>
       </c>
@@ -13502,7 +13503,7 @@
         <v>0.72399999999998954</v>
       </c>
     </row>
-    <row r="25" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B25" s="2" t="s">
         <v>66</v>
       </c>
@@ -13527,7 +13528,7 @@
         <v>0.64100000000000534</v>
       </c>
     </row>
-    <row r="26" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B26" s="2" t="s">
         <v>69</v>
       </c>
@@ -13552,7 +13553,7 @@
         <v>0.59500000000000597</v>
       </c>
     </row>
-    <row r="27" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B27" s="2" t="s">
         <v>72</v>
       </c>
@@ -13577,7 +13578,7 @@
         <v>0.51899999999999835</v>
       </c>
     </row>
-    <row r="28" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:8" s="2" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B28" s="2" t="s">
         <v>75</v>
       </c>
@@ -13602,7 +13603,7 @@
         <v>0.67400000000000659</v>
       </c>
     </row>
-    <row r="29" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B29" s="1" t="s">
         <v>78</v>
       </c>
@@ -13627,7 +13628,7 @@
         <v>0.7120000000000033</v>
       </c>
     </row>
-    <row r="30" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B30" s="1" t="s">
         <v>81</v>
       </c>
@@ -13652,7 +13653,7 @@
         <v>0.51299999999999812</v>
       </c>
     </row>
-    <row r="31" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B31" s="1" t="s">
         <v>83</v>
       </c>
@@ -13677,7 +13678,7 @@
         <v>0.52199999999999847</v>
       </c>
     </row>
-    <row r="32" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B32" s="1" t="s">
         <v>86</v>
       </c>
@@ -13702,7 +13703,7 @@
         <v>0.43800000000000239</v>
       </c>
     </row>
-    <row r="33" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B33" s="1" t="s">
         <v>89</v>
       </c>
@@ -13727,7 +13728,7 @@
         <v>0.53600000000000136</v>
       </c>
     </row>
-    <row r="34" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B34" s="1" t="s">
         <v>92</v>
       </c>
@@ -13752,7 +13753,7 @@
         <v>0.50500000000000256</v>
       </c>
     </row>
-    <row r="35" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B35" s="1" t="s">
         <v>95</v>
       </c>
@@ -13777,7 +13778,7 @@
         <v>0.45499999999999829</v>
       </c>
     </row>
-    <row r="36" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B36" s="1" t="s">
         <v>98</v>
       </c>
@@ -13802,7 +13803,7 @@
         <v>0.50500000000000256</v>
       </c>
     </row>
-    <row r="37" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B37" s="1" t="s">
         <v>101</v>
       </c>
@@ -13827,7 +13828,7 @@
         <v>0.48499999999999943</v>
       </c>
     </row>
-    <row r="38" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B38" s="1" t="s">
         <v>104</v>
       </c>
@@ -13852,7 +13853,7 @@
         <v>0.59200000000000585</v>
       </c>
     </row>
-    <row r="39" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B39" s="1" t="s">
         <v>107</v>
       </c>
@@ -13877,7 +13878,7 @@
         <v>0.43099999999999739</v>
       </c>
     </row>
-    <row r="40" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B40" s="4" t="s">
         <v>110</v>
       </c>
@@ -13902,7 +13903,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="41" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:8" s="4" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B41" s="4" t="s">
         <v>113</v>
       </c>
@@ -13927,7 +13928,7 @@
         <v>0.59599999999999653</v>
       </c>
     </row>
-    <row r="42" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B42" s="1" t="s">
         <v>116</v>
       </c>
@@ -13952,7 +13953,7 @@
         <v>0.42300000000000182</v>
       </c>
     </row>
-    <row r="43" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B43" s="1" t="s">
         <v>119</v>
       </c>
@@ -13977,7 +13978,7 @@
         <v>0.47099999999999653</v>
       </c>
     </row>
-    <row r="44" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B44" s="1" t="s">
         <v>122</v>
       </c>
@@ -14002,7 +14003,7 @@
         <v>0.44700000000000273</v>
       </c>
     </row>
-    <row r="45" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B45" s="1" t="s">
         <v>125</v>
       </c>
@@ -14027,7 +14028,7 @@
         <v>0.51200000000000045</v>
       </c>
     </row>
-    <row r="46" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B46" s="1" t="s">
         <v>128</v>
       </c>
@@ -14052,7 +14053,7 @@
         <v>0.60699999999999932</v>
       </c>
     </row>
-    <row r="47" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B47" s="1" t="s">
         <v>131</v>
       </c>
@@ -14077,7 +14078,7 @@
         <v>0.4930000000000021</v>
       </c>
     </row>
-    <row r="48" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B48" s="1" t="s">
         <v>134</v>
       </c>
@@ -14102,7 +14103,7 @@
         <v>0.64900000000000091</v>
       </c>
     </row>
-    <row r="49" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B49" s="1" t="s">
         <v>137</v>
       </c>
@@ -14127,7 +14128,7 @@
         <v>0.81300000000000239</v>
       </c>
     </row>
-    <row r="50" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B50" s="1" t="s">
         <v>140</v>
       </c>
@@ -14152,7 +14153,7 @@
         <v>1.2360000000000042</v>
       </c>
     </row>
-    <row r="51" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B51" s="1" t="s">
         <v>143</v>
       </c>
@@ -14177,7 +14178,7 @@
         <v>1.0820000000000078</v>
       </c>
     </row>
-    <row r="52" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B52" s="1" t="s">
         <v>146</v>
       </c>
@@ -14202,7 +14203,7 @@
         <v>0.49799999999999756</v>
       </c>
     </row>
-    <row r="53" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:8" s="1" customFormat="1" x14ac:dyDescent="0.45">
       <c r="B53" s="1" t="s">
         <v>149</v>
       </c>
@@ -14233,32 +14234,32 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:T65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+    <sheetView topLeftCell="A43" workbookViewId="0">
       <selection activeCell="E67" sqref="E67"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="18.88671875" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" customWidth="1"/>
-    <col min="4" max="4" width="21.21875" customWidth="1"/>
-    <col min="5" max="5" width="23.88671875" customWidth="1"/>
+    <col min="1" max="1" width="18.86328125" customWidth="1"/>
+    <col min="2" max="2" width="12.46484375" customWidth="1"/>
+    <col min="3" max="3" width="13.86328125" customWidth="1"/>
+    <col min="4" max="4" width="21.19921875" customWidth="1"/>
+    <col min="5" max="5" width="23.86328125" customWidth="1"/>
     <col min="6" max="6" width="10.33203125" customWidth="1"/>
     <col min="7" max="7" width="9.33203125" customWidth="1"/>
-    <col min="8" max="8" width="14.109375" customWidth="1"/>
+    <col min="8" max="8" width="14.1328125" customWidth="1"/>
     <col min="10" max="10" width="17.33203125" customWidth="1"/>
-    <col min="11" max="11" width="13.77734375" customWidth="1"/>
+    <col min="11" max="11" width="13.796875" customWidth="1"/>
     <col min="12" max="12" width="18.33203125" customWidth="1"/>
     <col min="13" max="13" width="11.6640625" customWidth="1"/>
-    <col min="14" max="14" width="8.88671875" style="8"/>
+    <col min="14" max="14" width="8.86328125" style="8"/>
     <col min="16" max="16" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="6" t="s">
         <v>157</v>
       </c>
@@ -14309,7 +14310,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A2" s="4" t="s">
         <v>112</v>
       </c>
@@ -14354,7 +14355,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A3" s="4" t="s">
         <v>115</v>
       </c>
@@ -14384,7 +14385,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:20" x14ac:dyDescent="0.45">
       <c r="B4" s="12" t="s">
         <v>162</v>
       </c>
@@ -14408,18 +14409,18 @@
         <v>0.85</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.45">
       <c r="C5" s="5"/>
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.45">
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A7" s="6" t="s">
         <v>157</v>
       </c>
@@ -14464,7 +14465,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>80</v>
       </c>
@@ -14530,7 +14531,7 @@
         <v>196.33464330499999</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>154</v>
       </c>
@@ -14586,7 +14587,7 @@
         <v>212.42898629200005</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>85</v>
       </c>
@@ -14631,7 +14632,7 @@
         <v>210.678818025</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>88</v>
       </c>
@@ -14676,7 +14677,7 @@
         <v>198.13900886200003</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>91</v>
       </c>
@@ -14727,7 +14728,7 @@
         <v>200.27666313500001</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>94</v>
       </c>
@@ -14772,7 +14773,7 @@
         <v>204.60493923200002</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>97</v>
       </c>
@@ -14817,7 +14818,7 @@
         <v>196.89478042500002</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>100</v>
       </c>
@@ -14862,7 +14863,7 @@
         <v>200.84251753699999</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>103</v>
       </c>
@@ -14907,7 +14908,7 @@
         <v>197.70222150699999</v>
       </c>
     </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>106</v>
       </c>
@@ -14958,7 +14959,7 @@
         <v>204.28064705000003</v>
       </c>
     </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
         <v>109</v>
       </c>
@@ -15003,7 +15004,7 @@
         <v>202.17211441199998</v>
       </c>
     </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A19" s="1" t="s">
         <v>118</v>
       </c>
@@ -15048,7 +15049,7 @@
         <v>196.37804106499999</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A20" s="1" t="s">
         <v>121</v>
       </c>
@@ -15093,7 +15094,7 @@
         <v>206.56963791300001</v>
       </c>
     </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A21" s="1" t="s">
         <v>124</v>
       </c>
@@ -15138,7 +15139,7 @@
         <v>198.90945979700001</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A22" s="1" t="s">
         <v>127</v>
       </c>
@@ -15183,7 +15184,7 @@
         <v>201.59274600000001</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A23" s="1" t="s">
         <v>130</v>
       </c>
@@ -15228,7 +15229,7 @@
         <v>196.33464330499999</v>
       </c>
     </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A24" s="1" t="s">
         <v>133</v>
       </c>
@@ -15273,7 +15274,7 @@
         <v>205.06881129299998</v>
       </c>
     </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A25" s="1" t="s">
         <v>136</v>
       </c>
@@ -15318,7 +15319,7 @@
         <v>207.973169267</v>
       </c>
     </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A26" s="1" t="s">
         <v>139</v>
       </c>
@@ -15363,7 +15364,7 @@
         <v>197.10024950500002</v>
       </c>
     </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A27" s="1" t="s">
         <v>142</v>
       </c>
@@ -15408,7 +15409,7 @@
         <v>200.66242631200004</v>
       </c>
     </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A28" s="1" t="s">
         <v>145</v>
       </c>
@@ -15453,7 +15454,7 @@
         <v>212.42898629200005</v>
       </c>
     </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A29" s="1" t="s">
         <v>148</v>
       </c>
@@ -15498,7 +15499,7 @@
         <v>206.42264522600001</v>
       </c>
     </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.45">
       <c r="A30" s="1" t="s">
         <v>151</v>
       </c>
@@ -15543,7 +15544,7 @@
         <v>204.45175977600002</v>
       </c>
     </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.45">
       <c r="B31" s="6" t="s">
         <v>162</v>
       </c>
@@ -15555,7 +15556,7 @@
       <c r="F31" s="6"/>
       <c r="G31" s="6"/>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.45">
       <c r="B32" s="6" t="s">
         <v>167</v>
       </c>
@@ -15567,7 +15568,7 @@
       <c r="F32" s="6"/>
       <c r="G32" s="6"/>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A35" s="6" t="s">
         <v>157</v>
       </c>
@@ -15612,7 +15613,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A36" s="2" t="s">
         <v>47</v>
       </c>
@@ -15672,7 +15673,7 @@
         <v>168.37755617400001</v>
       </c>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A37" s="2" t="s">
         <v>50</v>
       </c>
@@ -15728,7 +15729,7 @@
         <v>181.34909071800001</v>
       </c>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A38" s="2" t="s">
         <v>53</v>
       </c>
@@ -15773,7 +15774,7 @@
         <v>170.56602609800001</v>
       </c>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A39" s="2" t="s">
         <v>56</v>
       </c>
@@ -15818,7 +15819,7 @@
         <v>181.34909071800001</v>
       </c>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A40" s="2" t="s">
         <v>59</v>
       </c>
@@ -15863,7 +15864,7 @@
         <v>170.85366779399999</v>
       </c>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A41" s="2" t="s">
         <v>62</v>
       </c>
@@ -15908,7 +15909,7 @@
         <v>174.69930218600001</v>
       </c>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A42" s="2" t="s">
         <v>65</v>
       </c>
@@ -15953,7 +15954,7 @@
         <v>174.33573869200001</v>
       </c>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A43" s="2" t="s">
         <v>68</v>
       </c>
@@ -15998,7 +15999,7 @@
         <v>176.26902635200003</v>
       </c>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A44" s="2" t="s">
         <v>71</v>
       </c>
@@ -16043,7 +16044,7 @@
         <v>168.37755617400001</v>
       </c>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A45" s="2" t="s">
         <v>74</v>
       </c>
@@ -16088,7 +16089,7 @@
         <v>168.92994562700002</v>
       </c>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A46" s="2" t="s">
         <v>77</v>
       </c>
@@ -16133,7 +16134,7 @@
         <v>174.48616713199999</v>
       </c>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.45">
       <c r="B47" s="6" t="s">
         <v>162</v>
       </c>
@@ -16156,7 +16157,7 @@
         <v>174.86332344600001</v>
       </c>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.45">
       <c r="B48" s="6" t="s">
         <v>167</v>
       </c>
@@ -16180,7 +16181,7 @@
       </c>
       <c r="K48" s="5"/>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.45">
       <c r="E49" s="6" t="s">
         <v>1092</v>
       </c>
@@ -16196,7 +16197,7 @@
         <v>189.38966629525001</v>
       </c>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A51" s="6" t="s">
         <v>157</v>
       </c>
@@ -16241,7 +16242,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A52" s="3" t="s">
         <v>14</v>
       </c>
@@ -16301,7 +16302,7 @@
         <v>151.90009332100001</v>
       </c>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A53" s="3" t="s">
         <v>17</v>
       </c>
@@ -16357,7 +16358,7 @@
         <v>161.60513991400001</v>
       </c>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A54" s="3" t="s">
         <v>20</v>
       </c>
@@ -16402,7 +16403,7 @@
         <v>154.03250573000003</v>
       </c>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A55" s="3" t="s">
         <v>23</v>
       </c>
@@ -16447,7 +16448,7 @@
         <v>161.60513991400001</v>
       </c>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A56" s="3" t="s">
         <v>26</v>
       </c>
@@ -16492,7 +16493,7 @@
         <v>155.63596100200002</v>
       </c>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A57" s="3" t="s">
         <v>29</v>
       </c>
@@ -16537,7 +16538,7 @@
         <v>157.56709843800002</v>
       </c>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A58" s="3" t="s">
         <v>32</v>
       </c>
@@ -16582,7 +16583,7 @@
         <v>157.25935962</v>
       </c>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A59" s="3" t="s">
         <v>35</v>
       </c>
@@ -16627,7 +16628,7 @@
         <v>156.25992218700003</v>
       </c>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A60" s="3" t="s">
         <v>38</v>
       </c>
@@ -16672,7 +16673,7 @@
         <v>155.5821919</v>
       </c>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A61" s="3" t="s">
         <v>41</v>
       </c>
@@ -16717,7 +16718,7 @@
         <v>151.90009332100001</v>
       </c>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.45">
       <c r="A62" s="3" t="s">
         <v>44</v>
       </c>
@@ -16762,7 +16763,7 @@
         <v>155.00609518600001</v>
       </c>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.45">
       <c r="B63" s="6" t="s">
         <v>162</v>
       </c>
@@ -16785,7 +16786,7 @@
         <v>156.7526166175</v>
       </c>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.45">
       <c r="B64" s="6" t="s">
         <v>167</v>
       </c>
@@ -16809,7 +16810,7 @@
       </c>
       <c r="K64" s="5"/>
     </row>
-    <row r="65" spans="5:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="5:11" x14ac:dyDescent="0.45">
       <c r="E65" s="6" t="s">
         <v>1092</v>
       </c>
@@ -16906,20 +16907,20 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:O10"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="16.109375" customWidth="1"/>
-    <col min="11" max="11" width="11.21875" customWidth="1"/>
+    <col min="1" max="1" width="16.1328125" customWidth="1"/>
+    <col min="11" max="11" width="11.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A1" s="6" t="s">
         <v>157</v>
       </c>
@@ -16956,7 +16957,7 @@
       </c>
       <c r="N1" s="8"/>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>1042</v>
       </c>
@@ -16967,17 +16968,17 @@
         <v>22.271000000000001</v>
       </c>
       <c r="D2">
-        <v>3216.2840000000001</v>
+        <v>3220.221</v>
       </c>
       <c r="F2" s="14">
         <v>27.895</v>
       </c>
       <c r="H2">
-        <v>54.994999999999997</v>
+        <v>24.771999999999998</v>
       </c>
       <c r="J2" s="5">
         <f>B2+(C2+H2+E2)/1000*io_1!$J$1+(D2+F2*2+G2*2)/1000*io_1!$J$2</f>
-        <v>651.47669980399996</v>
+        <v>647.64500685400003</v>
       </c>
       <c r="K2" s="5" t="s">
         <v>1049</v>
@@ -16988,7 +16989,7 @@
       <c r="N2" s="8"/>
       <c r="O2" s="5"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>1043</v>
       </c>
@@ -16999,30 +17000,30 @@
         <v>22.271000000000001</v>
       </c>
       <c r="D3">
-        <v>2890.0239999999999</v>
+        <v>2925.7950000000001</v>
       </c>
       <c r="F3" s="14">
         <v>27.895</v>
       </c>
       <c r="H3">
-        <v>58.192999999999998</v>
+        <v>21.678000000000001</v>
       </c>
       <c r="J3" s="5">
         <f>B3+(C3+H3+E3)/1000*io_1!$J$1+(D3+F3*2+G3*2)/1000*io_1!$J$2</f>
-        <v>627.01355449000005</v>
+        <v>627.49976103800009</v>
       </c>
       <c r="K3" s="5">
         <f>$J$2-J3</f>
-        <v>24.463145313999917</v>
+        <v>20.145245815999942</v>
       </c>
       <c r="L3" s="5">
         <f>K3/io_1!$J$2*1000</f>
-        <v>148.31272205549746</v>
+        <v>122.1345908344091</v>
       </c>
       <c r="N3" s="8"/>
       <c r="O3" s="5"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>1044</v>
       </c>
@@ -17033,29 +17034,29 @@
         <v>22.271000000000001</v>
       </c>
       <c r="D4">
-        <v>2819.9490000000001</v>
+        <v>2816.0120000000002</v>
       </c>
       <c r="F4" s="14">
         <v>27.895</v>
       </c>
       <c r="H4">
-        <v>24.448</v>
+        <v>27.021000000000001</v>
       </c>
       <c r="J4" s="5">
         <f>B4+(C4+H4+E4)/1000*io_1!$J$1+(D4+F4*2+G4*2)/1000*io_1!$J$2</f>
-        <v>623.07390385000008</v>
+        <v>622.80601425000009</v>
       </c>
       <c r="K4" s="5">
         <f t="shared" ref="K4:K6" si="0">$J$2-J4</f>
-        <v>28.402795953999885</v>
+        <v>24.838992603999941</v>
       </c>
       <c r="L4" s="5">
         <f>K4/io_1!$J$2*1000</f>
-        <v>172.19764375572097</v>
+        <v>150.59137158897278</v>
       </c>
       <c r="N4" s="8"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>1045</v>
       </c>
@@ -17066,29 +17067,29 @@
         <v>22.271000000000001</v>
       </c>
       <c r="D5">
-        <v>3296.047</v>
+        <v>3274.732</v>
       </c>
       <c r="F5" s="14">
         <v>27.895</v>
       </c>
       <c r="H5">
-        <v>34.484999999999999</v>
+        <v>28.346</v>
       </c>
       <c r="J5" s="5">
         <f>B5+(C5+H5+E5)/1000*io_1!$J$1+(D5+F5*2+G5*2)/1000*io_1!$J$2</f>
-        <v>637.53709214300011</v>
+        <v>633.11112098499996</v>
       </c>
       <c r="K5" s="5">
         <f t="shared" si="0"/>
-        <v>13.939607660999854</v>
+        <v>14.533885869000073</v>
       </c>
       <c r="L5" s="5">
         <f>K5/io_1!$J$2*1000</f>
-        <v>84.511665611755902</v>
+        <v>88.114596369655402</v>
       </c>
       <c r="N5" s="8"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>1046</v>
       </c>
@@ -17099,29 +17100,29 @@
         <v>22.271000000000001</v>
       </c>
       <c r="D6">
-        <v>3160.1619999999998</v>
+        <v>3147.116</v>
       </c>
       <c r="F6" s="14">
         <v>27.895</v>
       </c>
       <c r="H6">
-        <v>32.853999999999999</v>
+        <v>28.346</v>
       </c>
       <c r="J6" s="5">
         <f>B6+(C6+H6+E6)/1000*io_1!$J$1+(D6+F6*2+G6*2)/1000*io_1!$J$2</f>
-        <v>634.79698911100002</v>
+        <v>631.97675509700002</v>
       </c>
       <c r="K6" s="5">
         <f t="shared" si="0"/>
-        <v>16.679710692999947</v>
+        <v>15.668251757000007</v>
       </c>
       <c r="L6" s="5">
         <f>K6/io_1!$J$2*1000</f>
-        <v>101.12408949152099</v>
+        <v>94.991916947066599</v>
       </c>
       <c r="N6" s="8"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>1047</v>
       </c>
@@ -17132,72 +17133,72 @@
         <v>22.271000000000001</v>
       </c>
       <c r="D7">
-        <v>3087.9450000000002</v>
+        <v>3068.26</v>
       </c>
       <c r="F7" s="14">
         <v>27.895</v>
       </c>
       <c r="H7">
-        <v>37.070999999999998</v>
+        <v>35.826999999999998</v>
       </c>
       <c r="J7" s="5">
         <f>B7+(C7+H7+E7)/1000*io_1!$J$1+(D7+F7*2+G7*2)/1000*io_1!$J$2</f>
-        <v>640.47054241900003</v>
+        <v>637.03919531600013</v>
       </c>
       <c r="K7" s="5">
         <f>$J$2-J7</f>
-        <v>11.006157384999938</v>
+        <v>10.605811537999898</v>
       </c>
       <c r="L7" s="5">
         <f>K7/io_1!$J$2*1000</f>
-        <v>66.727035309167036</v>
+        <v>64.299858363191504</v>
       </c>
       <c r="N7" s="8"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
         <v>1086</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B9" t="s">
         <v>1087</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C9" t="s">
         <v>173</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D9" t="s">
         <v>1088</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.45">
+      <c r="A10">
         <v>148.267</v>
       </c>
-      <c r="B14">
-        <f>A14/1000</f>
+      <c r="B10">
+        <f>A10/1000</f>
         <v>0.14826699999999998</v>
       </c>
-      <c r="C14">
+      <c r="C10">
         <f>1.3/2*1000</f>
         <v>650</v>
       </c>
-      <c r="D14">
-        <f>C14/B14</f>
+      <c r="D10">
+        <f>C10/B10</f>
         <v>4383.9829496786206</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="K2:K7">
-    <cfRule type="cellIs" dxfId="10" priority="3" operator="between">
+    <cfRule type="cellIs" dxfId="10" priority="6" operator="between">
       <formula>-$Q$4*$Q$2</formula>
       <formula>$Q$4*$Q$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J2:J7">
-    <cfRule type="cellIs" dxfId="9" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="25" operator="equal">
       <formula>$O$8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="2" operator="equal">
-      <formula>$O$9</formula>
+    <cfRule type="cellIs" dxfId="0" priority="26" operator="equal">
+      <formula>#REF!</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17206,20 +17207,20 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:R14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="16.109375" customWidth="1"/>
-    <col min="14" max="14" width="11.21875" customWidth="1"/>
+    <col min="1" max="1" width="16.1328125" customWidth="1"/>
+    <col min="14" max="14" width="11.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A1" s="6" t="s">
         <v>157</v>
       </c>
@@ -17265,7 +17266,7 @@
       </c>
       <c r="Q1" s="8"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>1050</v>
       </c>
@@ -17309,7 +17310,7 @@
       <c r="Q2" s="8"/>
       <c r="R2" s="5"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>1051</v>
       </c>
@@ -17346,7 +17347,7 @@
       <c r="Q3" s="8"/>
       <c r="R3" s="5"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>1052</v>
       </c>
@@ -17382,7 +17383,7 @@
       </c>
       <c r="Q4" s="8"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>1053</v>
       </c>
@@ -17418,7 +17419,7 @@
       </c>
       <c r="Q5" s="8"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>1054</v>
       </c>
@@ -17454,7 +17455,7 @@
       </c>
       <c r="Q6" s="8"/>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>1055</v>
       </c>
@@ -17490,7 +17491,7 @@
       </c>
       <c r="Q7" s="8"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>1056</v>
       </c>
@@ -17529,7 +17530,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>1057</v>
       </c>
@@ -17564,7 +17565,7 @@
         <v>60.480261660088786</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>1058</v>
       </c>
@@ -17599,7 +17600,7 @@
         <v>75.936106254888557</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>1059</v>
       </c>
@@ -17634,7 +17635,7 @@
         <v>9.3291570966940132</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>1060</v>
       </c>
@@ -17669,7 +17670,7 @@
         <v>-178.70737576011069</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>1061</v>
       </c>
@@ -17706,21 +17707,21 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="N2:N7">
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="between">
+    <cfRule type="cellIs" dxfId="9" priority="8" operator="between">
       <formula>-$T$4*$T$2</formula>
       <formula>$T$4*$T$2</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M2:M7 M9:M14">
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="6" operator="equal">
       <formula>$R$8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="equal">
       <formula>$R$9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N9:N14">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="between">
+    <cfRule type="cellIs" dxfId="6" priority="5" operator="between">
       <formula>-$T$4*$T$2</formula>
       <formula>$T$4*$T$2</formula>
     </cfRule>
@@ -17730,19 +17731,19 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:Q18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="16.109375" customWidth="1"/>
+    <col min="1" max="1" width="16.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A1" s="6" t="s">
         <v>157</v>
       </c>
@@ -17781,7 +17782,7 @@
         <v>1076</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>1067</v>
       </c>
@@ -17807,7 +17808,7 @@
       <c r="M2" s="8"/>
       <c r="N2" s="5"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>1069</v>
       </c>
@@ -17840,7 +17841,7 @@
       </c>
       <c r="N3" s="5"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>1070</v>
       </c>
@@ -17859,7 +17860,7 @@
       </c>
       <c r="M4" s="8"/>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>1068</v>
       </c>
@@ -17885,7 +17886,7 @@
         <v>39.808928713</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>1071</v>
       </c>
@@ -17904,7 +17905,7 @@
       </c>
       <c r="M6" s="8"/>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>1072</v>
       </c>
@@ -17930,7 +17931,7 @@
         <v>48.673219574999997</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>1073</v>
       </c>
@@ -17948,7 +17949,7 @@
         <v>69.773985947000014</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>1074</v>
       </c>
@@ -17974,7 +17975,7 @@
         <v>67.681123108500003</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>1078</v>
       </c>
@@ -17996,7 +17997,7 @@
         <v>1085</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>1077</v>
       </c>
@@ -18027,7 +18028,7 @@
       </c>
       <c r="Q12" s="5"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>1079</v>
       </c>
@@ -18046,7 +18047,7 @@
       </c>
       <c r="M13" s="8"/>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>1080</v>
       </c>
@@ -18076,7 +18077,7 @@
         <v>325.319257811</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A15" s="1" t="s">
         <v>1081</v>
       </c>
@@ -18101,7 +18102,7 @@
       </c>
       <c r="M15" s="8"/>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.45">
       <c r="A16" s="1" t="s">
         <v>1082</v>
       </c>
@@ -18137,7 +18138,7 @@
         <v>339.00283183350001</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A17" s="1" t="s">
         <v>1083</v>
       </c>
@@ -18161,7 +18162,7 @@
         <v>299.20563422200001</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.45">
       <c r="A18" s="1" t="s">
         <v>1084</v>
       </c>
@@ -18199,18 +18200,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="K2:K9">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="4" operator="equal">
       <formula>$N$8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="equal">
       <formula>$N$9</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11:K18">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="equal">
       <formula>$N$8</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
       <formula>$N$9</formula>
     </cfRule>
   </conditionalFormatting>
@@ -18219,12 +18220,12 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
